--- a/data/MW1128.xlsx
+++ b/data/MW1128.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27715"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27510"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="54140" yWindow="8120" windowWidth="29260" windowHeight="20360" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25440" windowHeight="15460" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="시트1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="575" uniqueCount="330">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1369" uniqueCount="392">
   <si>
     <t>과목명 : 생활속의통계학-01(005036)</t>
   </si>
@@ -964,11 +964,244 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>group</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Black</t>
+    <t>010-5591-0794</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>박용희</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>허소영</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1회</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2회</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3회</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>4회</t>
+  </si>
+  <si>
+    <t>5회</t>
+  </si>
+  <si>
+    <t>6회</t>
+  </si>
+  <si>
+    <t>7회</t>
+  </si>
+  <si>
+    <t>8회</t>
+  </si>
+  <si>
+    <t>9회</t>
+  </si>
+  <si>
+    <t>10회</t>
+  </si>
+  <si>
+    <t>M</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>W</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>빨강팀</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>W</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>M</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>W</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>M</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>W</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>M</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2인조</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>M</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>맨앞</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>M</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>W</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>M</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>보민</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>어벤져스</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>어벤져스</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>파랑</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>중국</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Q.Red</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>졸려</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>앞줄</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>안전</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>조신</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ABC</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>S.siri</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>S.siri</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Material</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>법경</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>W</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>돌공</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>심리학과</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>둥둥이</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>법학</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>민정</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>환경</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>지우개</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>드림</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>강</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>강</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>光</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>지니</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>뒷자리 구석</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>뒷자리 구석</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>경영</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>깜찌기</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>융소.경제</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>융소.경제</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -976,67 +1209,75 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>010-5591-0794</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>박용희</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>H1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>H2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>H3</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>H4</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>MA</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>가</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>나</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>가</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>나</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>허소영</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>나</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>가</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>Red</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Black</t>
+    <t>우리는'한조'</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>우리는'한조'</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>루미너스</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>루미너스</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>윤주</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>블라인드</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>덴마크 민트초코우유</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>짝</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>지은 진만</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>지은 진만</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>길라임</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>귤</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>귤</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>무명</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>홀짝.Black</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>홀짝.Red</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Team</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1044,7 +1285,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1068,6 +1309,13 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="AppleGothic 일반체"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1077,7 +1325,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -1137,26 +1385,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1180,10 +1413,19 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1473,10 +1715,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O97"/>
+  <dimension ref="A1:W98"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="Q4" sqref="Q4"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="V9" sqref="V9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -1489,23 +1731,24 @@
     <col min="6" max="6" width="11.42578125" customWidth="1"/>
     <col min="7" max="7" width="28.5703125" customWidth="1"/>
     <col min="8" max="8" width="10" customWidth="1"/>
-    <col min="9" max="9" width="20" customWidth="1"/>
+    <col min="9" max="10" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-      <c r="H1" s="12"/>
-      <c r="I1" s="13"/>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="16"/>
+      <c r="J1" s="9"/>
+    </row>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -1533,26 +1776,44 @@
       <c r="I2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="6" t="s">
+      <c r="J2" s="2" t="s">
+        <v>391</v>
+      </c>
+      <c r="K2" s="6" t="s">
+        <v>314</v>
+      </c>
+      <c r="L2" s="6" t="s">
+        <v>315</v>
+      </c>
+      <c r="M2" s="6" t="s">
         <v>316</v>
       </c>
-      <c r="K2" s="6" t="s">
+      <c r="N2" s="6" t="s">
         <v>317</v>
       </c>
-      <c r="L2" s="6" t="s">
+      <c r="O2" s="6" t="s">
         <v>318</v>
       </c>
-      <c r="M2" s="6" t="s">
+      <c r="P2" s="6" t="s">
         <v>319</v>
       </c>
-      <c r="N2" s="6" t="s">
+      <c r="Q2" s="6" t="s">
         <v>320</v>
       </c>
-      <c r="O2" s="6" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R2" s="6" t="s">
+        <v>321</v>
+      </c>
+      <c r="S2" s="6" t="s">
+        <v>322</v>
+      </c>
+      <c r="T2" s="6" t="s">
+        <v>323</v>
+      </c>
+      <c r="U2" s="10"/>
+      <c r="V2" s="12"/>
+      <c r="W2" s="12"/>
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>1</v>
       </c>
@@ -1576,26 +1837,43 @@
       <c r="I3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="J3" s="6">
-        <v>1</v>
-      </c>
-      <c r="K3" s="6">
-        <v>8</v>
-      </c>
-      <c r="L3" s="6">
-        <v>7</v>
-      </c>
-      <c r="M3" s="6">
-        <v>7</v>
-      </c>
-      <c r="N3" s="7" t="s">
-        <v>323</v>
-      </c>
-      <c r="O3" s="9" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="J3" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="K3" s="6" t="s">
+        <v>354</v>
+      </c>
+      <c r="L3" s="6" t="s">
+        <v>354</v>
+      </c>
+      <c r="M3" s="6" t="s">
+        <v>325</v>
+      </c>
+      <c r="N3" s="6" t="s">
+        <v>354</v>
+      </c>
+      <c r="O3" s="7" t="s">
+        <v>325</v>
+      </c>
+      <c r="P3" s="7" t="s">
+        <v>325</v>
+      </c>
+      <c r="Q3" s="7" t="s">
+        <v>336</v>
+      </c>
+      <c r="R3" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="S3" s="7" t="s">
+        <v>325</v>
+      </c>
+      <c r="T3" s="7" t="s">
+        <v>325</v>
+      </c>
+      <c r="V3" s="12"/>
+      <c r="W3" s="12"/>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>2</v>
       </c>
@@ -1619,16 +1897,21 @@
       <c r="I4" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="J4" s="7"/>
+      <c r="J4" s="2"/>
       <c r="K4" s="7"/>
       <c r="L4" s="7"/>
       <c r="M4" s="7"/>
       <c r="N4" s="7"/>
-      <c r="O4" s="9" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O4" s="7"/>
+      <c r="P4" s="7"/>
+      <c r="Q4" s="7"/>
+      <c r="R4" s="7"/>
+      <c r="S4" s="7"/>
+      <c r="T4" s="7"/>
+      <c r="V4" s="12"/>
+      <c r="W4" s="12"/>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>3</v>
       </c>
@@ -1652,26 +1935,43 @@
       <c r="I5" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="J5" s="6">
-        <v>7</v>
-      </c>
-      <c r="K5" s="6">
-        <v>8</v>
-      </c>
-      <c r="L5" s="6">
-        <v>8</v>
-      </c>
-      <c r="M5" s="6">
-        <v>6</v>
-      </c>
-      <c r="N5" s="7" t="s">
-        <v>321</v>
-      </c>
-      <c r="O5" s="10" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="J5" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="K5" s="6" t="s">
+        <v>336</v>
+      </c>
+      <c r="L5" s="6" t="s">
+        <v>337</v>
+      </c>
+      <c r="M5" s="6" t="s">
+        <v>325</v>
+      </c>
+      <c r="N5" s="6" t="s">
+        <v>325</v>
+      </c>
+      <c r="O5" s="7" t="s">
+        <v>336</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>337</v>
+      </c>
+      <c r="Q5" s="7" t="s">
+        <v>337</v>
+      </c>
+      <c r="R5" s="7" t="s">
+        <v>337</v>
+      </c>
+      <c r="S5" s="7" t="s">
+        <v>337</v>
+      </c>
+      <c r="T5" s="7" t="s">
+        <v>338</v>
+      </c>
+      <c r="V5" s="12"/>
+      <c r="W5" s="12"/>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>4</v>
       </c>
@@ -1695,26 +1995,43 @@
       <c r="I6" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="J6" s="6">
-        <v>5</v>
-      </c>
-      <c r="K6" s="6">
-        <v>4</v>
-      </c>
-      <c r="L6" s="6">
-        <v>3</v>
-      </c>
-      <c r="M6" s="6">
-        <v>7</v>
-      </c>
-      <c r="N6" s="7" t="s">
-        <v>321</v>
-      </c>
-      <c r="O6" s="10" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="J6" s="2" t="s">
+        <v>380</v>
+      </c>
+      <c r="K6" s="6" t="s">
+        <v>328</v>
+      </c>
+      <c r="L6" s="6" t="s">
+        <v>327</v>
+      </c>
+      <c r="M6" s="6" t="s">
+        <v>329</v>
+      </c>
+      <c r="N6" s="6" t="s">
+        <v>328</v>
+      </c>
+      <c r="O6" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="P6" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="Q6" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="R6" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="S6" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="T6" s="7" t="s">
+        <v>329</v>
+      </c>
+      <c r="V6" s="12"/>
+      <c r="W6" s="12"/>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>5</v>
       </c>
@@ -1738,26 +2055,43 @@
       <c r="I7" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="J7" s="7">
-        <v>7</v>
-      </c>
-      <c r="K7" s="7">
-        <v>6</v>
-      </c>
-      <c r="L7" s="7">
-        <v>7</v>
-      </c>
-      <c r="M7" s="7">
-        <v>5</v>
+      <c r="J7" s="2" t="s">
+        <v>380</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>328</v>
+      </c>
+      <c r="L7" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="M7" s="7" t="s">
+        <v>327</v>
       </c>
       <c r="N7" s="7" t="s">
-        <v>322</v>
-      </c>
-      <c r="O7" s="10" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.2">
+        <v>328</v>
+      </c>
+      <c r="O7" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="Q7" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="R7" s="7" t="s">
+        <v>329</v>
+      </c>
+      <c r="S7" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="T7" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="V7" s="12"/>
+      <c r="W7" s="12"/>
+    </row>
+    <row r="8" spans="1:23" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>6</v>
       </c>
@@ -1781,26 +2115,43 @@
       <c r="I8" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="J8" s="8">
-        <v>2</v>
-      </c>
-      <c r="K8" s="8">
-        <v>8</v>
-      </c>
-      <c r="L8" s="8">
-        <v>6</v>
-      </c>
-      <c r="M8" s="8">
-        <v>7</v>
+      <c r="J8" s="3" t="s">
+        <v>375</v>
+      </c>
+      <c r="K8" s="8" t="s">
+        <v>328</v>
+      </c>
+      <c r="L8" s="8" t="s">
+        <v>328</v>
+      </c>
+      <c r="M8" s="8" t="s">
+        <v>329</v>
       </c>
       <c r="N8" s="8" t="s">
-        <v>322</v>
-      </c>
-      <c r="O8" s="10" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+        <v>328</v>
+      </c>
+      <c r="O8" s="8" t="s">
+        <v>332</v>
+      </c>
+      <c r="P8" s="8" t="s">
+        <v>332</v>
+      </c>
+      <c r="Q8" s="8" t="s">
+        <v>327</v>
+      </c>
+      <c r="R8" s="8" t="s">
+        <v>329</v>
+      </c>
+      <c r="S8" s="8" t="s">
+        <v>327</v>
+      </c>
+      <c r="T8" s="8" t="s">
+        <v>332</v>
+      </c>
+      <c r="V8" s="13"/>
+      <c r="W8" s="13"/>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>7</v>
       </c>
@@ -1824,26 +2175,43 @@
       <c r="I9" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="J9" s="6">
-        <v>3</v>
-      </c>
-      <c r="K9" s="6">
-        <v>6</v>
-      </c>
-      <c r="L9" s="6">
-        <v>6</v>
-      </c>
-      <c r="M9" s="6">
-        <v>5</v>
-      </c>
-      <c r="N9" s="7" t="s">
-        <v>322</v>
-      </c>
-      <c r="O9" s="10" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="J9" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="K9" s="6" t="s">
+        <v>329</v>
+      </c>
+      <c r="L9" s="6" t="s">
+        <v>327</v>
+      </c>
+      <c r="M9" s="6" t="s">
+        <v>327</v>
+      </c>
+      <c r="N9" s="6" t="s">
+        <v>328</v>
+      </c>
+      <c r="O9" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="P9" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="Q9" s="7" t="s">
+        <v>329</v>
+      </c>
+      <c r="R9" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="S9" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="T9" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="V9" s="12"/>
+      <c r="W9" s="12"/>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>8</v>
       </c>
@@ -1867,26 +2235,43 @@
       <c r="I10" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="J10" s="6">
-        <v>6</v>
-      </c>
-      <c r="K10" s="6">
-        <v>5</v>
-      </c>
-      <c r="L10" s="6">
-        <v>8</v>
-      </c>
-      <c r="M10" s="6">
-        <v>8</v>
-      </c>
-      <c r="N10" s="7" t="s">
-        <v>322</v>
-      </c>
-      <c r="O10" s="10" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="J10" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="K10" s="6" t="s">
+        <v>328</v>
+      </c>
+      <c r="L10" s="6" t="s">
+        <v>328</v>
+      </c>
+      <c r="M10" s="6" t="s">
+        <v>327</v>
+      </c>
+      <c r="N10" s="6" t="s">
+        <v>327</v>
+      </c>
+      <c r="O10" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>329</v>
+      </c>
+      <c r="Q10" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="R10" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="S10" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="T10" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="V10" s="12"/>
+      <c r="W10" s="12"/>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>9</v>
       </c>
@@ -1910,26 +2295,43 @@
       <c r="I11" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="J11" s="6">
-        <v>5</v>
-      </c>
-      <c r="K11" s="6">
-        <v>5</v>
-      </c>
-      <c r="L11" s="6">
-        <v>4</v>
-      </c>
-      <c r="M11" s="6">
-        <v>5</v>
-      </c>
-      <c r="N11" s="7" t="s">
-        <v>321</v>
-      </c>
-      <c r="O11" s="10" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="J11" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="K11" s="6" t="s">
+        <v>332</v>
+      </c>
+      <c r="L11" s="6" t="s">
+        <v>328</v>
+      </c>
+      <c r="M11" s="6" t="s">
+        <v>329</v>
+      </c>
+      <c r="N11" s="6" t="s">
+        <v>327</v>
+      </c>
+      <c r="O11" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>328</v>
+      </c>
+      <c r="Q11" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="R11" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="S11" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="T11" s="7" t="s">
+        <v>328</v>
+      </c>
+      <c r="V11" s="12"/>
+      <c r="W11" s="12"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>10</v>
       </c>
@@ -1953,26 +2355,43 @@
       <c r="I12" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="J12" s="6">
-        <v>8</v>
-      </c>
-      <c r="K12" s="6">
-        <v>7</v>
-      </c>
-      <c r="L12" s="6">
-        <v>9</v>
-      </c>
-      <c r="M12" s="6">
-        <v>8</v>
-      </c>
-      <c r="N12" s="7" t="s">
-        <v>321</v>
-      </c>
-      <c r="O12" s="10" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="J12" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="K12" s="6" t="s">
+        <v>329</v>
+      </c>
+      <c r="L12" s="6" t="s">
+        <v>329</v>
+      </c>
+      <c r="M12" s="6" t="s">
+        <v>327</v>
+      </c>
+      <c r="N12" s="6" t="s">
+        <v>328</v>
+      </c>
+      <c r="O12" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="P12" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="Q12" s="7" t="s">
+        <v>328</v>
+      </c>
+      <c r="R12" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="S12" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="T12" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="V12" s="12"/>
+      <c r="W12" s="12"/>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>11</v>
       </c>
@@ -1996,26 +2415,43 @@
       <c r="I13" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="J13" s="6">
-        <v>8</v>
-      </c>
-      <c r="K13" s="6">
-        <v>8</v>
-      </c>
-      <c r="L13" s="6">
-        <v>8</v>
-      </c>
-      <c r="M13" s="6">
-        <v>8</v>
-      </c>
-      <c r="N13" s="7" t="s">
-        <v>321</v>
-      </c>
-      <c r="O13" s="10" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="J13" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="K13" s="6" t="s">
+        <v>328</v>
+      </c>
+      <c r="L13" s="6" t="s">
+        <v>329</v>
+      </c>
+      <c r="M13" s="6" t="s">
+        <v>327</v>
+      </c>
+      <c r="N13" s="6" t="s">
+        <v>329</v>
+      </c>
+      <c r="O13" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>328</v>
+      </c>
+      <c r="Q13" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="R13" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="S13" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="T13" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="V13" s="12"/>
+      <c r="W13" s="12"/>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>12</v>
       </c>
@@ -2039,26 +2475,43 @@
       <c r="I14" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="J14" s="6">
-        <v>3</v>
-      </c>
-      <c r="K14" s="6">
-        <v>6</v>
-      </c>
-      <c r="L14" s="6">
-        <v>9</v>
-      </c>
-      <c r="M14" s="6">
-        <v>8</v>
-      </c>
-      <c r="N14" s="7" t="s">
-        <v>322</v>
-      </c>
-      <c r="O14" s="10" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="J14" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="K14" s="6" t="s">
+        <v>329</v>
+      </c>
+      <c r="L14" s="6" t="s">
+        <v>329</v>
+      </c>
+      <c r="M14" s="6" t="s">
+        <v>332</v>
+      </c>
+      <c r="N14" s="6" t="s">
+        <v>329</v>
+      </c>
+      <c r="O14" s="7" t="s">
+        <v>328</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="Q14" s="7" t="s">
+        <v>329</v>
+      </c>
+      <c r="R14" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="S14" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="T14" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="V14" s="12"/>
+      <c r="W14" s="12"/>
+    </row>
+    <row r="15" spans="1:23" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
         <v>13</v>
       </c>
@@ -2082,26 +2535,43 @@
       <c r="I15" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="J15" s="8">
-        <v>7</v>
-      </c>
-      <c r="K15" s="8">
-        <v>6</v>
-      </c>
-      <c r="L15" s="8">
-        <v>9</v>
-      </c>
-      <c r="M15" s="8">
-        <v>7</v>
+      <c r="J15" s="3" t="s">
+        <v>339</v>
+      </c>
+      <c r="K15" s="8" t="s">
+        <v>329</v>
+      </c>
+      <c r="L15" s="8" t="s">
+        <v>327</v>
+      </c>
+      <c r="M15" s="8" t="s">
+        <v>328</v>
       </c>
       <c r="N15" s="8" t="s">
-        <v>321</v>
-      </c>
-      <c r="O15" s="10" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+        <v>327</v>
+      </c>
+      <c r="O15" s="8" t="s">
+        <v>327</v>
+      </c>
+      <c r="P15" s="8" t="s">
+        <v>328</v>
+      </c>
+      <c r="Q15" s="8" t="s">
+        <v>327</v>
+      </c>
+      <c r="R15" s="8" t="s">
+        <v>327</v>
+      </c>
+      <c r="S15" s="8" t="s">
+        <v>328</v>
+      </c>
+      <c r="T15" s="8" t="s">
+        <v>327</v>
+      </c>
+      <c r="V15" s="13"/>
+      <c r="W15" s="13"/>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
         <v>14</v>
       </c>
@@ -2125,26 +2595,43 @@
       <c r="I16" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="J16" s="6">
-        <v>6</v>
-      </c>
-      <c r="K16" s="6">
-        <v>6</v>
-      </c>
-      <c r="L16" s="6">
-        <v>6</v>
-      </c>
-      <c r="M16" s="6">
-        <v>6</v>
-      </c>
-      <c r="N16" s="7" t="s">
-        <v>321</v>
-      </c>
-      <c r="O16" s="10" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="J16" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="K16" s="6" t="s">
+        <v>329</v>
+      </c>
+      <c r="L16" s="6" t="s">
+        <v>332</v>
+      </c>
+      <c r="M16" s="6" t="s">
+        <v>329</v>
+      </c>
+      <c r="N16" s="6" t="s">
+        <v>328</v>
+      </c>
+      <c r="O16" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>328</v>
+      </c>
+      <c r="Q16" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="R16" s="7" t="s">
+        <v>328</v>
+      </c>
+      <c r="S16" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="T16" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="V16" s="12"/>
+      <c r="W16" s="12"/>
+    </row>
+    <row r="17" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>15</v>
       </c>
@@ -2168,26 +2655,21 @@
       <c r="I17" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="J17" s="6">
-        <v>8</v>
-      </c>
-      <c r="K17" s="6">
-        <v>6</v>
-      </c>
-      <c r="L17" s="6">
-        <v>6</v>
-      </c>
-      <c r="M17" s="6">
-        <v>5</v>
-      </c>
-      <c r="N17" s="7" t="s">
-        <v>322</v>
-      </c>
-      <c r="O17" s="10" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="J17" s="2"/>
+      <c r="K17" s="2"/>
+      <c r="L17" s="2"/>
+      <c r="M17" s="2"/>
+      <c r="N17" s="2"/>
+      <c r="O17" s="2"/>
+      <c r="P17" s="2"/>
+      <c r="Q17" s="2"/>
+      <c r="R17" s="2"/>
+      <c r="S17" s="2"/>
+      <c r="T17" s="2"/>
+      <c r="V17" s="12"/>
+      <c r="W17" s="12"/>
+    </row>
+    <row r="18" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>16</v>
       </c>
@@ -2211,26 +2693,43 @@
       <c r="I18" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="J18" s="6">
-        <v>9</v>
-      </c>
-      <c r="K18" s="6">
-        <v>8</v>
-      </c>
-      <c r="L18" s="6">
-        <v>8</v>
-      </c>
-      <c r="M18" s="6">
-        <v>8</v>
-      </c>
-      <c r="N18" s="7" t="s">
-        <v>322</v>
-      </c>
-      <c r="O18" s="10" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="J18" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="K18" s="6" t="s">
+        <v>327</v>
+      </c>
+      <c r="L18" s="6" t="s">
+        <v>328</v>
+      </c>
+      <c r="M18" s="6" t="s">
+        <v>328</v>
+      </c>
+      <c r="N18" s="6" t="s">
+        <v>330</v>
+      </c>
+      <c r="O18" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="P18" s="6" t="s">
+        <v>327</v>
+      </c>
+      <c r="Q18" s="6" t="s">
+        <v>329</v>
+      </c>
+      <c r="R18" s="6" t="s">
+        <v>332</v>
+      </c>
+      <c r="S18" s="6" t="s">
+        <v>328</v>
+      </c>
+      <c r="T18" s="6" t="s">
+        <v>331</v>
+      </c>
+      <c r="V18" s="12"/>
+      <c r="W18" s="12"/>
+    </row>
+    <row r="19" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>17</v>
       </c>
@@ -2254,26 +2753,43 @@
       <c r="I19" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="J19" s="7">
-        <v>8</v>
-      </c>
-      <c r="K19" s="7">
-        <v>7</v>
-      </c>
-      <c r="L19" s="7">
-        <v>8</v>
-      </c>
-      <c r="M19" s="7">
-        <v>7</v>
+      <c r="J19" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>328</v>
+      </c>
+      <c r="L19" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="M19" s="7" t="s">
+        <v>332</v>
       </c>
       <c r="N19" s="7" t="s">
-        <v>322</v>
-      </c>
-      <c r="O19" s="10" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+        <v>332</v>
+      </c>
+      <c r="O19" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="Q19" s="7" t="s">
+        <v>329</v>
+      </c>
+      <c r="R19" s="7" t="s">
+        <v>328</v>
+      </c>
+      <c r="S19" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="T19" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="V19" s="12"/>
+      <c r="W19" s="12"/>
+    </row>
+    <row r="20" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>18</v>
       </c>
@@ -2297,26 +2813,43 @@
       <c r="I20" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="J20" s="6">
-        <v>5</v>
-      </c>
-      <c r="K20" s="6">
-        <v>3</v>
-      </c>
-      <c r="L20" s="6">
-        <v>4</v>
-      </c>
-      <c r="M20" s="6">
-        <v>5</v>
-      </c>
-      <c r="N20" s="7" t="s">
-        <v>321</v>
-      </c>
-      <c r="O20" s="10" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="J20" s="2" t="s">
+        <v>373</v>
+      </c>
+      <c r="K20" s="6" t="s">
+        <v>328</v>
+      </c>
+      <c r="L20" s="6" t="s">
+        <v>329</v>
+      </c>
+      <c r="M20" s="6" t="s">
+        <v>328</v>
+      </c>
+      <c r="N20" s="6" t="s">
+        <v>327</v>
+      </c>
+      <c r="O20" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="Q20" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="R20" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="S20" s="7" t="s">
+        <v>329</v>
+      </c>
+      <c r="T20" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="V20" s="12"/>
+      <c r="W20" s="12"/>
+    </row>
+    <row r="21" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>19</v>
       </c>
@@ -2340,26 +2873,43 @@
       <c r="I21" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="J21" s="6">
-        <v>7</v>
-      </c>
-      <c r="K21" s="6">
-        <v>8</v>
-      </c>
-      <c r="L21" s="6">
-        <v>9</v>
-      </c>
-      <c r="M21" s="6">
-        <v>9</v>
-      </c>
-      <c r="N21" s="7" t="s">
-        <v>321</v>
-      </c>
-      <c r="O21" s="10" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="J21" s="2" t="s">
+        <v>383</v>
+      </c>
+      <c r="K21" s="6" t="s">
+        <v>329</v>
+      </c>
+      <c r="L21" s="6" t="s">
+        <v>327</v>
+      </c>
+      <c r="M21" s="6" t="s">
+        <v>327</v>
+      </c>
+      <c r="N21" s="6" t="s">
+        <v>329</v>
+      </c>
+      <c r="O21" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="P21" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="Q21" s="7" t="s">
+        <v>329</v>
+      </c>
+      <c r="R21" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="S21" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="T21" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="V21" s="12"/>
+      <c r="W21" s="12"/>
+    </row>
+    <row r="22" spans="1:23" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" s="2">
         <v>20</v>
       </c>
@@ -2383,26 +2933,43 @@
       <c r="I22" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="J22" s="8">
-        <v>6</v>
-      </c>
-      <c r="K22" s="8">
-        <v>8</v>
-      </c>
-      <c r="L22" s="8">
-        <v>7</v>
-      </c>
-      <c r="M22" s="8">
-        <v>8</v>
+      <c r="J22" s="3" t="s">
+        <v>378</v>
+      </c>
+      <c r="K22" s="8" t="s">
+        <v>328</v>
+      </c>
+      <c r="L22" s="8" t="s">
+        <v>332</v>
+      </c>
+      <c r="M22" s="8" t="s">
+        <v>332</v>
       </c>
       <c r="N22" s="8" t="s">
-        <v>326</v>
-      </c>
-      <c r="O22" s="10" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+        <v>332</v>
+      </c>
+      <c r="O22" s="8" t="s">
+        <v>327</v>
+      </c>
+      <c r="P22" s="8" t="s">
+        <v>327</v>
+      </c>
+      <c r="Q22" s="8" t="s">
+        <v>327</v>
+      </c>
+      <c r="R22" s="8" t="s">
+        <v>328</v>
+      </c>
+      <c r="S22" s="8" t="s">
+        <v>332</v>
+      </c>
+      <c r="T22" s="8" t="s">
+        <v>332</v>
+      </c>
+      <c r="V22" s="13"/>
+      <c r="W22" s="13"/>
+    </row>
+    <row r="23" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>21</v>
       </c>
@@ -2426,26 +2993,43 @@
       <c r="I23" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="J23" s="6">
-        <v>5</v>
-      </c>
-      <c r="K23" s="6">
-        <v>8</v>
-      </c>
-      <c r="L23" s="6">
-        <v>8</v>
-      </c>
-      <c r="M23" s="6">
-        <v>8</v>
-      </c>
-      <c r="N23" s="7" t="s">
-        <v>321</v>
-      </c>
-      <c r="O23" s="10" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="J23" s="2" t="s">
+        <v>386</v>
+      </c>
+      <c r="K23" s="6" t="s">
+        <v>328</v>
+      </c>
+      <c r="L23" s="6" t="s">
+        <v>327</v>
+      </c>
+      <c r="M23" s="6" t="s">
+        <v>327</v>
+      </c>
+      <c r="N23" s="6" t="s">
+        <v>332</v>
+      </c>
+      <c r="O23" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>329</v>
+      </c>
+      <c r="Q23" s="7" t="s">
+        <v>329</v>
+      </c>
+      <c r="R23" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="S23" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="T23" s="7" t="s">
+        <v>329</v>
+      </c>
+      <c r="V23" s="12"/>
+      <c r="W23" s="12"/>
+    </row>
+    <row r="24" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A24" s="3">
         <v>22</v>
       </c>
@@ -2469,26 +3053,21 @@
       <c r="I24" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="J24" s="7">
-        <v>7</v>
-      </c>
-      <c r="K24" s="7">
-        <v>8</v>
-      </c>
-      <c r="L24" s="7">
-        <v>8</v>
-      </c>
-      <c r="M24" s="7">
-        <v>7</v>
-      </c>
-      <c r="N24" s="7" t="s">
-        <v>326</v>
-      </c>
-      <c r="O24" s="10" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="J24" s="2"/>
+      <c r="K24" s="7"/>
+      <c r="L24" s="7"/>
+      <c r="M24" s="7"/>
+      <c r="N24" s="7"/>
+      <c r="O24" s="7"/>
+      <c r="P24" s="7"/>
+      <c r="Q24" s="7"/>
+      <c r="R24" s="7"/>
+      <c r="S24" s="7"/>
+      <c r="T24" s="7"/>
+      <c r="V24" s="12"/>
+      <c r="W24" s="12"/>
+    </row>
+    <row r="25" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>23</v>
       </c>
@@ -2512,16 +3091,43 @@
       <c r="I25" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="J25" s="6"/>
-      <c r="K25" s="6"/>
-      <c r="L25" s="6"/>
-      <c r="M25" s="6"/>
-      <c r="N25" s="7"/>
-      <c r="O25" s="10" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="J25" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="K25" s="6" t="s">
+        <v>329</v>
+      </c>
+      <c r="L25" s="6" t="s">
+        <v>327</v>
+      </c>
+      <c r="M25" s="6" t="s">
+        <v>332</v>
+      </c>
+      <c r="N25" s="6" t="s">
+        <v>329</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="R25" s="7" t="s">
+        <v>329</v>
+      </c>
+      <c r="S25" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="T25" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="V25" s="12"/>
+      <c r="W25" s="12"/>
+    </row>
+    <row r="26" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>24</v>
       </c>
@@ -2545,26 +3151,43 @@
       <c r="I26" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="J26" s="6">
-        <v>6</v>
-      </c>
-      <c r="K26" s="6">
-        <v>6</v>
-      </c>
-      <c r="L26" s="6">
-        <v>4</v>
-      </c>
-      <c r="M26" s="6">
-        <v>4</v>
-      </c>
-      <c r="N26" s="7" t="s">
-        <v>321</v>
-      </c>
-      <c r="O26" s="10" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="J26" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="K26" s="6" t="s">
+        <v>327</v>
+      </c>
+      <c r="L26" s="6" t="s">
+        <v>328</v>
+      </c>
+      <c r="M26" s="6" t="s">
+        <v>327</v>
+      </c>
+      <c r="N26" s="6" t="s">
+        <v>329</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>334</v>
+      </c>
+      <c r="P26" s="6" t="s">
+        <v>332</v>
+      </c>
+      <c r="Q26" s="6" t="s">
+        <v>330</v>
+      </c>
+      <c r="R26" s="6" t="s">
+        <v>331</v>
+      </c>
+      <c r="S26" s="6" t="s">
+        <v>331</v>
+      </c>
+      <c r="T26" s="6" t="s">
+        <v>330</v>
+      </c>
+      <c r="V26" s="12"/>
+      <c r="W26" s="12"/>
+    </row>
+    <row r="27" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>25</v>
       </c>
@@ -2588,26 +3211,43 @@
       <c r="I27" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="J27" s="6">
-        <v>7</v>
-      </c>
-      <c r="K27" s="6">
-        <v>5</v>
-      </c>
-      <c r="L27" s="6">
-        <v>7</v>
-      </c>
-      <c r="M27" s="6">
-        <v>8</v>
-      </c>
-      <c r="N27" s="7" t="s">
-        <v>327</v>
-      </c>
-      <c r="O27" s="10" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="J27" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="K27" s="6" t="s">
+        <v>329</v>
+      </c>
+      <c r="L27" s="6" t="s">
+        <v>327</v>
+      </c>
+      <c r="M27" s="6" t="s">
+        <v>328</v>
+      </c>
+      <c r="N27" s="6" t="s">
+        <v>327</v>
+      </c>
+      <c r="O27" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>328</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="R27" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="S27" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="T27" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="V27" s="12"/>
+      <c r="W27" s="12"/>
+    </row>
+    <row r="28" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>26</v>
       </c>
@@ -2631,26 +3271,43 @@
       <c r="I28" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="J28" s="6">
-        <v>9</v>
-      </c>
-      <c r="K28" s="6">
-        <v>7</v>
-      </c>
-      <c r="L28" s="6">
-        <v>7</v>
-      </c>
-      <c r="M28" s="6">
-        <v>5</v>
-      </c>
-      <c r="N28" s="7" t="s">
-        <v>321</v>
-      </c>
-      <c r="O28" s="10" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="J28" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="K28" s="6" t="s">
+        <v>329</v>
+      </c>
+      <c r="L28" s="6" t="s">
+        <v>327</v>
+      </c>
+      <c r="M28" s="6" t="s">
+        <v>327</v>
+      </c>
+      <c r="N28" s="6" t="s">
+        <v>329</v>
+      </c>
+      <c r="O28" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="P28" s="7" t="s">
+        <v>328</v>
+      </c>
+      <c r="Q28" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="R28" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="S28" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="T28" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="V28" s="12"/>
+      <c r="W28" s="12"/>
+    </row>
+    <row r="29" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>27</v>
       </c>
@@ -2674,26 +3331,43 @@
       <c r="I29" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="J29" s="6">
-        <v>8</v>
-      </c>
-      <c r="K29" s="6">
-        <v>5</v>
-      </c>
-      <c r="L29" s="6">
-        <v>6</v>
-      </c>
-      <c r="M29" s="6">
-        <v>6</v>
-      </c>
-      <c r="N29" s="7" t="s">
-        <v>322</v>
-      </c>
-      <c r="O29" s="10" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="J29" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="K29" s="6" t="s">
+        <v>327</v>
+      </c>
+      <c r="L29" s="6" t="s">
+        <v>328</v>
+      </c>
+      <c r="M29" s="6" t="s">
+        <v>327</v>
+      </c>
+      <c r="N29" s="6" t="s">
+        <v>328</v>
+      </c>
+      <c r="O29" s="7" t="s">
+        <v>328</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="Q29" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="R29" s="7" t="s">
+        <v>328</v>
+      </c>
+      <c r="S29" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="T29" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="V29" s="12"/>
+      <c r="W29" s="12"/>
+    </row>
+    <row r="30" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>28</v>
       </c>
@@ -2717,26 +3391,21 @@
       <c r="I30" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="J30" s="6">
-        <v>5</v>
-      </c>
-      <c r="K30" s="6">
-        <v>8</v>
-      </c>
-      <c r="L30" s="6">
-        <v>7</v>
-      </c>
-      <c r="M30" s="6">
-        <v>8</v>
-      </c>
-      <c r="N30" s="7" t="s">
-        <v>321</v>
-      </c>
-      <c r="O30" s="10" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="31" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="J30" s="2"/>
+      <c r="K30" s="6"/>
+      <c r="L30" s="6"/>
+      <c r="M30" s="6"/>
+      <c r="N30" s="6"/>
+      <c r="O30" s="7"/>
+      <c r="P30" s="7"/>
+      <c r="Q30" s="7"/>
+      <c r="R30" s="7"/>
+      <c r="S30" s="7"/>
+      <c r="T30" s="7"/>
+      <c r="V30" s="12"/>
+      <c r="W30" s="12"/>
+    </row>
+    <row r="31" spans="1:23" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A31" s="2">
         <v>29</v>
       </c>
@@ -2760,26 +3429,43 @@
       <c r="I31" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="J31" s="8">
-        <v>5</v>
-      </c>
-      <c r="K31" s="8">
-        <v>6</v>
-      </c>
-      <c r="L31" s="8">
-        <v>6</v>
-      </c>
-      <c r="M31" s="8">
-        <v>7</v>
+      <c r="J31" s="3" t="s">
+        <v>377</v>
+      </c>
+      <c r="K31" s="8" t="s">
+        <v>329</v>
+      </c>
+      <c r="L31" s="8" t="s">
+        <v>329</v>
+      </c>
+      <c r="M31" s="8" t="s">
+        <v>332</v>
       </c>
       <c r="N31" s="8" t="s">
-        <v>323</v>
-      </c>
-      <c r="O31" s="10" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+        <v>332</v>
+      </c>
+      <c r="O31" s="8" t="s">
+        <v>328</v>
+      </c>
+      <c r="P31" s="8" t="s">
+        <v>328</v>
+      </c>
+      <c r="Q31" s="8" t="s">
+        <v>332</v>
+      </c>
+      <c r="R31" s="8" t="s">
+        <v>332</v>
+      </c>
+      <c r="S31" s="8" t="s">
+        <v>328</v>
+      </c>
+      <c r="T31" s="8" t="s">
+        <v>332</v>
+      </c>
+      <c r="V31" s="13"/>
+      <c r="W31" s="13"/>
+    </row>
+    <row r="32" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A32" s="3">
         <v>30</v>
       </c>
@@ -2803,26 +3489,43 @@
       <c r="I32" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="J32" s="6">
-        <v>7</v>
-      </c>
-      <c r="K32" s="6">
-        <v>6</v>
-      </c>
-      <c r="L32" s="6">
-        <v>7</v>
-      </c>
-      <c r="M32" s="6">
-        <v>9</v>
-      </c>
-      <c r="N32" s="7" t="s">
-        <v>321</v>
-      </c>
-      <c r="O32" s="10" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="J32" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="K32" s="6" t="s">
+        <v>328</v>
+      </c>
+      <c r="L32" s="6" t="s">
+        <v>329</v>
+      </c>
+      <c r="M32" s="6" t="s">
+        <v>330</v>
+      </c>
+      <c r="N32" s="6" t="s">
+        <v>332</v>
+      </c>
+      <c r="O32" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="P32" s="6" t="s">
+        <v>327</v>
+      </c>
+      <c r="Q32" s="6" t="s">
+        <v>328</v>
+      </c>
+      <c r="R32" s="6" t="s">
+        <v>331</v>
+      </c>
+      <c r="S32" s="6" t="s">
+        <v>327</v>
+      </c>
+      <c r="T32" s="6" t="s">
+        <v>328</v>
+      </c>
+      <c r="V32" s="12"/>
+      <c r="W32" s="12"/>
+    </row>
+    <row r="33" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
         <v>31</v>
       </c>
@@ -2834,7 +3537,7 @@
         <v>20165413</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="F33" s="2">
         <v>1</v>
@@ -2846,26 +3549,43 @@
       <c r="I33" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="J33" s="6">
-        <v>8</v>
-      </c>
-      <c r="K33" s="6">
-        <v>8</v>
-      </c>
-      <c r="L33" s="6">
-        <v>7</v>
-      </c>
-      <c r="M33" s="6">
-        <v>8</v>
-      </c>
-      <c r="N33" s="7" t="s">
-        <v>322</v>
-      </c>
-      <c r="O33" s="10" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="J33" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="K33" s="6" t="s">
+        <v>328</v>
+      </c>
+      <c r="L33" s="6" t="s">
+        <v>332</v>
+      </c>
+      <c r="M33" s="6" t="s">
+        <v>332</v>
+      </c>
+      <c r="N33" s="6" t="s">
+        <v>332</v>
+      </c>
+      <c r="O33" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="P33" s="7" t="s">
+        <v>328</v>
+      </c>
+      <c r="Q33" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="R33" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="S33" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="T33" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="V33" s="12"/>
+      <c r="W33" s="12"/>
+    </row>
+    <row r="34" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
         <v>32</v>
       </c>
@@ -2889,26 +3609,43 @@
       <c r="I34" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="J34" s="6">
-        <v>6</v>
-      </c>
-      <c r="K34" s="6">
-        <v>7</v>
-      </c>
-      <c r="L34" s="6">
-        <v>7</v>
-      </c>
-      <c r="M34" s="6">
-        <v>7</v>
-      </c>
-      <c r="N34" s="7" t="s">
-        <v>323</v>
-      </c>
-      <c r="O34" s="10" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="J34" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="K34" s="6" t="s">
+        <v>328</v>
+      </c>
+      <c r="L34" s="6" t="s">
+        <v>327</v>
+      </c>
+      <c r="M34" s="6" t="s">
+        <v>327</v>
+      </c>
+      <c r="N34" s="6" t="s">
+        <v>329</v>
+      </c>
+      <c r="O34" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="P34" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="Q34" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="R34" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="S34" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="T34" s="7" t="s">
+        <v>329</v>
+      </c>
+      <c r="V34" s="12"/>
+      <c r="W34" s="12"/>
+    </row>
+    <row r="35" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
         <v>33</v>
       </c>
@@ -2932,26 +3669,43 @@
       <c r="I35" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="J35" s="6">
-        <v>7</v>
-      </c>
-      <c r="K35" s="6">
-        <v>8</v>
-      </c>
-      <c r="L35" s="6">
-        <v>8</v>
-      </c>
-      <c r="M35" s="6">
-        <v>7</v>
-      </c>
-      <c r="N35" s="7" t="s">
-        <v>323</v>
-      </c>
-      <c r="O35" s="10" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="J35" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="K35" s="6" t="s">
+        <v>329</v>
+      </c>
+      <c r="L35" s="6" t="s">
+        <v>327</v>
+      </c>
+      <c r="M35" s="6" t="s">
+        <v>329</v>
+      </c>
+      <c r="N35" s="6" t="s">
+        <v>332</v>
+      </c>
+      <c r="O35" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="P35" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="Q35" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="R35" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="S35" s="7" t="s">
+        <v>329</v>
+      </c>
+      <c r="T35" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="V35" s="12"/>
+      <c r="W35" s="12"/>
+    </row>
+    <row r="36" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
         <v>34</v>
       </c>
@@ -2975,26 +3729,21 @@
       <c r="I36" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="J36" s="6">
-        <v>7</v>
-      </c>
-      <c r="K36" s="6">
-        <v>6</v>
-      </c>
-      <c r="L36" s="6">
-        <v>5</v>
-      </c>
-      <c r="M36" s="6">
-        <v>7</v>
-      </c>
-      <c r="N36" s="7" t="s">
-        <v>323</v>
-      </c>
-      <c r="O36" s="10" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="J36" s="2"/>
+      <c r="K36" s="6"/>
+      <c r="L36" s="6"/>
+      <c r="M36" s="6"/>
+      <c r="N36" s="6"/>
+      <c r="O36" s="7"/>
+      <c r="P36" s="7"/>
+      <c r="Q36" s="7"/>
+      <c r="R36" s="7"/>
+      <c r="S36" s="7"/>
+      <c r="T36" s="7"/>
+      <c r="V36" s="12"/>
+      <c r="W36" s="12"/>
+    </row>
+    <row r="37" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
         <v>35</v>
       </c>
@@ -3018,26 +3767,43 @@
       <c r="I37" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="J37" s="6">
-        <v>7</v>
-      </c>
-      <c r="K37" s="6">
-        <v>8</v>
-      </c>
-      <c r="L37" s="6">
-        <v>10</v>
-      </c>
-      <c r="M37" s="6">
-        <v>9</v>
-      </c>
-      <c r="N37" s="7" t="s">
-        <v>321</v>
-      </c>
-      <c r="O37" s="10" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="J37" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="K37" s="6" t="s">
+        <v>329</v>
+      </c>
+      <c r="L37" s="6" t="s">
+        <v>332</v>
+      </c>
+      <c r="M37" s="6" t="s">
+        <v>328</v>
+      </c>
+      <c r="N37" s="6" t="s">
+        <v>329</v>
+      </c>
+      <c r="O37" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="P37" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="Q37" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="R37" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="S37" s="7" t="s">
+        <v>329</v>
+      </c>
+      <c r="T37" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="V37" s="12"/>
+      <c r="W37" s="12"/>
+    </row>
+    <row r="38" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
         <v>36</v>
       </c>
@@ -3061,16 +3827,43 @@
       <c r="I38" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="J38" s="6"/>
-      <c r="K38" s="6"/>
-      <c r="L38" s="6"/>
-      <c r="M38" s="6"/>
-      <c r="N38" s="7"/>
-      <c r="O38" s="10" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="J38" s="2" t="s">
+        <v>370</v>
+      </c>
+      <c r="K38" s="6" t="s">
+        <v>328</v>
+      </c>
+      <c r="L38" s="6" t="s">
+        <v>332</v>
+      </c>
+      <c r="M38" s="6" t="s">
+        <v>332</v>
+      </c>
+      <c r="N38" s="6" t="s">
+        <v>328</v>
+      </c>
+      <c r="O38" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="P38" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="Q38" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="R38" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="S38" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="T38" s="7" t="s">
+        <v>328</v>
+      </c>
+      <c r="V38" s="12"/>
+      <c r="W38" s="12"/>
+    </row>
+    <row r="39" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
         <v>37</v>
       </c>
@@ -3094,26 +3887,43 @@
       <c r="I39" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="J39" s="6">
-        <v>8</v>
-      </c>
-      <c r="K39" s="6">
-        <v>9</v>
-      </c>
-      <c r="L39" s="6">
-        <v>8</v>
-      </c>
-      <c r="M39" s="6">
-        <v>9</v>
-      </c>
-      <c r="N39" s="7" t="s">
-        <v>321</v>
-      </c>
-      <c r="O39" s="10" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="J39" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="K39" s="6" t="s">
+        <v>329</v>
+      </c>
+      <c r="L39" s="6" t="s">
+        <v>328</v>
+      </c>
+      <c r="M39" s="6" t="s">
+        <v>328</v>
+      </c>
+      <c r="N39" s="6" t="s">
+        <v>327</v>
+      </c>
+      <c r="O39" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="P39" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="Q39" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="R39" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="S39" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="T39" s="7" t="s">
+        <v>329</v>
+      </c>
+      <c r="V39" s="12"/>
+      <c r="W39" s="12"/>
+    </row>
+    <row r="40" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A40" s="3">
         <v>38</v>
       </c>
@@ -3137,26 +3947,43 @@
       <c r="I40" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="J40" s="6">
-        <v>5</v>
-      </c>
-      <c r="K40" s="6">
-        <v>7</v>
-      </c>
-      <c r="L40" s="6">
-        <v>8</v>
-      </c>
-      <c r="M40" s="6">
-        <v>8</v>
-      </c>
-      <c r="N40" s="7" t="s">
-        <v>326</v>
-      </c>
-      <c r="O40" s="10" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="J40" s="2" t="s">
+        <v>370</v>
+      </c>
+      <c r="K40" s="6" t="s">
+        <v>328</v>
+      </c>
+      <c r="L40" s="6" t="s">
+        <v>328</v>
+      </c>
+      <c r="M40" s="6" t="s">
+        <v>327</v>
+      </c>
+      <c r="N40" s="6" t="s">
+        <v>327</v>
+      </c>
+      <c r="O40" s="7" t="s">
+        <v>328</v>
+      </c>
+      <c r="P40" s="7" t="s">
+        <v>328</v>
+      </c>
+      <c r="Q40" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="R40" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="S40" s="7" t="s">
+        <v>328</v>
+      </c>
+      <c r="T40" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="V40" s="12"/>
+      <c r="W40" s="12"/>
+    </row>
+    <row r="41" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
         <v>39</v>
       </c>
@@ -3180,26 +4007,43 @@
       <c r="I41" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="J41" s="6">
-        <v>6</v>
-      </c>
-      <c r="K41" s="6">
-        <v>7</v>
-      </c>
-      <c r="L41" s="6">
-        <v>5</v>
-      </c>
-      <c r="M41" s="6">
-        <v>6</v>
-      </c>
-      <c r="N41" s="7" t="s">
-        <v>322</v>
-      </c>
-      <c r="O41" s="10" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="J41" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="K41" s="6" t="s">
+        <v>329</v>
+      </c>
+      <c r="L41" s="6" t="s">
+        <v>328</v>
+      </c>
+      <c r="M41" s="6" t="s">
+        <v>332</v>
+      </c>
+      <c r="N41" s="6" t="s">
+        <v>327</v>
+      </c>
+      <c r="O41" s="7" t="s">
+        <v>328</v>
+      </c>
+      <c r="P41" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="Q41" s="7" t="s">
+        <v>329</v>
+      </c>
+      <c r="R41" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="S41" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="T41" s="7" t="s">
+        <v>328</v>
+      </c>
+      <c r="V41" s="12"/>
+      <c r="W41" s="12"/>
+    </row>
+    <row r="42" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
         <v>40</v>
       </c>
@@ -3223,26 +4067,43 @@
       <c r="I42" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="J42" s="6">
-        <v>1</v>
-      </c>
-      <c r="K42" s="6">
-        <v>5</v>
-      </c>
-      <c r="L42" s="6">
-        <v>4</v>
-      </c>
-      <c r="M42" s="6">
-        <v>7</v>
-      </c>
-      <c r="N42" s="7" t="s">
-        <v>321</v>
-      </c>
-      <c r="O42" s="10" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="J42" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="K42" s="6" t="s">
+        <v>329</v>
+      </c>
+      <c r="L42" s="6" t="s">
+        <v>332</v>
+      </c>
+      <c r="M42" s="6" t="s">
+        <v>332</v>
+      </c>
+      <c r="N42" s="6" t="s">
+        <v>329</v>
+      </c>
+      <c r="O42" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="P42" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="Q42" s="7" t="s">
+        <v>328</v>
+      </c>
+      <c r="R42" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="S42" s="7" t="s">
+        <v>329</v>
+      </c>
+      <c r="T42" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="V42" s="12"/>
+      <c r="W42" s="12"/>
+    </row>
+    <row r="43" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A43" s="2">
         <v>41</v>
       </c>
@@ -3266,26 +4127,43 @@
       <c r="I43" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="J43" s="7">
-        <v>6</v>
-      </c>
-      <c r="K43" s="7">
-        <v>7</v>
-      </c>
-      <c r="L43" s="7">
-        <v>7</v>
-      </c>
-      <c r="M43" s="7">
-        <v>9</v>
+      <c r="J43" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="K43" s="7" t="s">
+        <v>329</v>
+      </c>
+      <c r="L43" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="M43" s="7" t="s">
+        <v>332</v>
       </c>
       <c r="N43" s="7" t="s">
-        <v>321</v>
-      </c>
-      <c r="O43" s="10" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
+        <v>327</v>
+      </c>
+      <c r="O43" s="7" t="s">
+        <v>328</v>
+      </c>
+      <c r="P43" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="Q43" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="R43" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="S43" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="T43" s="7" t="s">
+        <v>328</v>
+      </c>
+      <c r="V43" s="12"/>
+      <c r="W43" s="12"/>
+    </row>
+    <row r="44" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A44" s="2">
         <v>42</v>
       </c>
@@ -3309,26 +4187,43 @@
       <c r="I44" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="J44" s="6">
-        <v>7</v>
-      </c>
-      <c r="K44" s="6">
-        <v>8</v>
-      </c>
-      <c r="L44" s="6">
-        <v>8</v>
-      </c>
-      <c r="M44" s="6">
-        <v>8</v>
-      </c>
-      <c r="N44" s="7" t="s">
-        <v>322</v>
-      </c>
-      <c r="O44" s="10" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="45" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="J44" s="2" t="s">
+        <v>351</v>
+      </c>
+      <c r="K44" s="6" t="s">
+        <v>332</v>
+      </c>
+      <c r="L44" s="6" t="s">
+        <v>332</v>
+      </c>
+      <c r="M44" s="6" t="s">
+        <v>327</v>
+      </c>
+      <c r="N44" s="6" t="s">
+        <v>332</v>
+      </c>
+      <c r="O44" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="P44" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="Q44" s="7" t="s">
+        <v>328</v>
+      </c>
+      <c r="R44" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="S44" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="T44" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="V44" s="12"/>
+      <c r="W44" s="12"/>
+    </row>
+    <row r="45" spans="1:23" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A45" s="2">
         <v>43</v>
       </c>
@@ -3352,26 +4247,43 @@
       <c r="I45" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="J45" s="8">
-        <v>3</v>
-      </c>
-      <c r="K45" s="8">
-        <v>3</v>
-      </c>
-      <c r="L45" s="8">
-        <v>3</v>
-      </c>
-      <c r="M45" s="8">
-        <v>5</v>
+      <c r="J45" s="3" t="s">
+        <v>347</v>
+      </c>
+      <c r="K45" s="8" t="s">
+        <v>328</v>
+      </c>
+      <c r="L45" s="8" t="s">
+        <v>329</v>
+      </c>
+      <c r="M45" s="8" t="s">
+        <v>327</v>
       </c>
       <c r="N45" s="8" t="s">
-        <v>321</v>
-      </c>
-      <c r="O45" s="10" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
+        <v>329</v>
+      </c>
+      <c r="O45" s="8" t="s">
+        <v>332</v>
+      </c>
+      <c r="P45" s="8" t="s">
+        <v>327</v>
+      </c>
+      <c r="Q45" s="8" t="s">
+        <v>329</v>
+      </c>
+      <c r="R45" s="8" t="s">
+        <v>332</v>
+      </c>
+      <c r="S45" s="8" t="s">
+        <v>327</v>
+      </c>
+      <c r="T45" s="8" t="s">
+        <v>328</v>
+      </c>
+      <c r="V45" s="13"/>
+      <c r="W45" s="13"/>
+    </row>
+    <row r="46" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A46" s="2">
         <v>44</v>
       </c>
@@ -3395,26 +4307,43 @@
       <c r="I46" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="J46" s="6">
-        <v>5</v>
-      </c>
-      <c r="K46" s="6">
-        <v>8</v>
-      </c>
-      <c r="L46" s="6">
-        <v>8</v>
-      </c>
-      <c r="M46" s="6">
-        <v>8</v>
-      </c>
-      <c r="N46" s="7" t="s">
-        <v>323</v>
-      </c>
-      <c r="O46" s="10" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="J46" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="K46" s="6" t="s">
+        <v>332</v>
+      </c>
+      <c r="L46" s="6" t="s">
+        <v>328</v>
+      </c>
+      <c r="M46" s="6" t="s">
+        <v>332</v>
+      </c>
+      <c r="N46" s="6" t="s">
+        <v>327</v>
+      </c>
+      <c r="O46" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="P46" s="7" t="s">
+        <v>328</v>
+      </c>
+      <c r="Q46" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="R46" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="S46" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="T46" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="V46" s="12"/>
+      <c r="W46" s="12"/>
+    </row>
+    <row r="47" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A47" s="2">
         <v>45</v>
       </c>
@@ -3438,26 +4367,43 @@
       <c r="I47" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="J47" s="6">
-        <v>7</v>
-      </c>
-      <c r="K47" s="6">
-        <v>4</v>
-      </c>
-      <c r="L47" s="6">
-        <v>8</v>
-      </c>
-      <c r="M47" s="6">
-        <v>6</v>
-      </c>
-      <c r="N47" s="7" t="s">
-        <v>323</v>
-      </c>
-      <c r="O47" s="10" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="48" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="J47" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="K47" s="6" t="s">
+        <v>332</v>
+      </c>
+      <c r="L47" s="6" t="s">
+        <v>332</v>
+      </c>
+      <c r="M47" s="6" t="s">
+        <v>332</v>
+      </c>
+      <c r="N47" s="6" t="s">
+        <v>332</v>
+      </c>
+      <c r="O47" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="P47" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="Q47" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="R47" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="S47" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="T47" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="V47" s="12"/>
+      <c r="W47" s="12"/>
+    </row>
+    <row r="48" spans="1:23" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48" s="3">
         <v>46</v>
       </c>
@@ -3481,26 +4427,43 @@
       <c r="I48" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="J48" s="8">
-        <v>6</v>
-      </c>
-      <c r="K48" s="8">
-        <v>6</v>
-      </c>
-      <c r="L48" s="8">
-        <v>7</v>
-      </c>
-      <c r="M48" s="8">
-        <v>6</v>
+      <c r="J48" s="3" t="s">
+        <v>371</v>
+      </c>
+      <c r="K48" s="8" t="s">
+        <v>328</v>
+      </c>
+      <c r="L48" s="8" t="s">
+        <v>329</v>
+      </c>
+      <c r="M48" s="8" t="s">
+        <v>327</v>
       </c>
       <c r="N48" s="8" t="s">
-        <v>321</v>
-      </c>
-      <c r="O48" s="10" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
+        <v>332</v>
+      </c>
+      <c r="O48" s="8" t="s">
+        <v>332</v>
+      </c>
+      <c r="P48" s="8" t="s">
+        <v>329</v>
+      </c>
+      <c r="Q48" s="8" t="s">
+        <v>327</v>
+      </c>
+      <c r="R48" s="8" t="s">
+        <v>327</v>
+      </c>
+      <c r="S48" s="8" t="s">
+        <v>329</v>
+      </c>
+      <c r="T48" s="8" t="s">
+        <v>327</v>
+      </c>
+      <c r="V48" s="13"/>
+      <c r="W48" s="13"/>
+    </row>
+    <row r="49" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A49" s="2">
         <v>47</v>
       </c>
@@ -3524,26 +4487,43 @@
       <c r="I49" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="J49" s="6">
-        <v>6</v>
-      </c>
-      <c r="K49" s="6">
-        <v>6</v>
-      </c>
-      <c r="L49" s="6">
-        <v>5</v>
-      </c>
-      <c r="M49" s="6">
-        <v>7</v>
-      </c>
-      <c r="N49" s="7" t="s">
-        <v>322</v>
-      </c>
-      <c r="O49" s="10" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="J49" s="2" t="s">
+        <v>368</v>
+      </c>
+      <c r="K49" s="6" t="s">
+        <v>329</v>
+      </c>
+      <c r="L49" s="6" t="s">
+        <v>332</v>
+      </c>
+      <c r="M49" s="6" t="s">
+        <v>329</v>
+      </c>
+      <c r="N49" s="6" t="s">
+        <v>327</v>
+      </c>
+      <c r="O49" s="7" t="s">
+        <v>328</v>
+      </c>
+      <c r="P49" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="Q49" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="R49" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="S49" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="T49" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="V49" s="12"/>
+      <c r="W49" s="12"/>
+    </row>
+    <row r="50" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A50" s="2">
         <v>48</v>
       </c>
@@ -3567,16 +4547,43 @@
       <c r="I50" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="J50" s="6"/>
-      <c r="K50" s="6"/>
-      <c r="L50" s="6"/>
-      <c r="M50" s="6"/>
-      <c r="N50" s="7"/>
-      <c r="O50" s="10" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="J50" s="2" t="s">
+        <v>390</v>
+      </c>
+      <c r="K50" s="6" t="s">
+        <v>329</v>
+      </c>
+      <c r="L50" s="6" t="s">
+        <v>327</v>
+      </c>
+      <c r="M50" s="6" t="s">
+        <v>327</v>
+      </c>
+      <c r="N50" s="6" t="s">
+        <v>327</v>
+      </c>
+      <c r="O50" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="P50" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="Q50" s="7" t="s">
+        <v>329</v>
+      </c>
+      <c r="R50" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="S50" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="T50" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="V50" s="12"/>
+      <c r="W50" s="12"/>
+    </row>
+    <row r="51" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A51" s="2">
         <v>49</v>
       </c>
@@ -3600,16 +4607,43 @@
       <c r="I51" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="J51" s="6"/>
-      <c r="K51" s="6"/>
-      <c r="L51" s="6"/>
-      <c r="M51" s="6"/>
-      <c r="N51" s="7"/>
-      <c r="O51" s="10" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="J51" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="K51" s="6" t="s">
+        <v>329</v>
+      </c>
+      <c r="L51" s="6" t="s">
+        <v>329</v>
+      </c>
+      <c r="M51" s="6" t="s">
+        <v>327</v>
+      </c>
+      <c r="N51" s="6" t="s">
+        <v>329</v>
+      </c>
+      <c r="O51" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="P51" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="Q51" s="7" t="s">
+        <v>329</v>
+      </c>
+      <c r="R51" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="S51" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="T51" s="7" t="s">
+        <v>329</v>
+      </c>
+      <c r="V51" s="12"/>
+      <c r="W51" s="12"/>
+    </row>
+    <row r="52" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A52" s="2">
         <v>50</v>
       </c>
@@ -3633,26 +4667,43 @@
       <c r="I52" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="J52" s="6">
-        <v>8</v>
-      </c>
-      <c r="K52" s="6">
-        <v>8</v>
-      </c>
-      <c r="L52" s="6">
-        <v>8</v>
-      </c>
-      <c r="M52" s="6">
-        <v>8</v>
-      </c>
-      <c r="N52" s="7" t="s">
-        <v>321</v>
-      </c>
-      <c r="O52" s="10" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="J52" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="K52" s="6" t="s">
+        <v>329</v>
+      </c>
+      <c r="L52" s="6" t="s">
+        <v>329</v>
+      </c>
+      <c r="M52" s="6" t="s">
+        <v>327</v>
+      </c>
+      <c r="N52" s="6" t="s">
+        <v>327</v>
+      </c>
+      <c r="O52" s="7" t="s">
+        <v>329</v>
+      </c>
+      <c r="P52" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="Q52" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="R52" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="S52" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="T52" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="V52" s="12"/>
+      <c r="W52" s="12"/>
+    </row>
+    <row r="53" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A53" s="2">
         <v>51</v>
       </c>
@@ -3676,26 +4727,43 @@
       <c r="I53" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="J53" s="6">
-        <v>7</v>
-      </c>
-      <c r="K53" s="6">
-        <v>8</v>
-      </c>
-      <c r="L53" s="6">
-        <v>7</v>
-      </c>
-      <c r="M53" s="6">
-        <v>7</v>
-      </c>
-      <c r="N53" s="7" t="s">
-        <v>322</v>
-      </c>
-      <c r="O53" s="10" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="J53" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="K53" s="6" t="s">
+        <v>328</v>
+      </c>
+      <c r="L53" s="6" t="s">
+        <v>327</v>
+      </c>
+      <c r="M53" s="6" t="s">
+        <v>332</v>
+      </c>
+      <c r="N53" s="6" t="s">
+        <v>327</v>
+      </c>
+      <c r="O53" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="P53" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="Q53" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="R53" s="7" t="s">
+        <v>329</v>
+      </c>
+      <c r="S53" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="T53" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="V53" s="12"/>
+      <c r="W53" s="12"/>
+    </row>
+    <row r="54" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A54" s="2">
         <v>52</v>
       </c>
@@ -3719,16 +4787,21 @@
       <c r="I54" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="J54" s="7"/>
+      <c r="J54" s="2"/>
       <c r="K54" s="7"/>
       <c r="L54" s="7"/>
       <c r="M54" s="7"/>
       <c r="N54" s="7"/>
-      <c r="O54" s="10" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O54" s="7"/>
+      <c r="P54" s="7"/>
+      <c r="Q54" s="7"/>
+      <c r="R54" s="7"/>
+      <c r="S54" s="7"/>
+      <c r="T54" s="7"/>
+      <c r="V54" s="12"/>
+      <c r="W54" s="12"/>
+    </row>
+    <row r="55" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A55" s="2">
         <v>53</v>
       </c>
@@ -3752,26 +4825,43 @@
       <c r="I55" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="J55" s="6">
-        <v>4</v>
-      </c>
-      <c r="K55" s="6">
-        <v>4</v>
-      </c>
-      <c r="L55" s="6">
-        <v>3</v>
-      </c>
-      <c r="M55" s="6">
-        <v>4</v>
-      </c>
-      <c r="N55" s="7" t="s">
-        <v>321</v>
-      </c>
-      <c r="O55" s="10" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="J55" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="K55" s="6" t="s">
+        <v>329</v>
+      </c>
+      <c r="L55" s="6" t="s">
+        <v>329</v>
+      </c>
+      <c r="M55" s="6" t="s">
+        <v>332</v>
+      </c>
+      <c r="N55" s="6" t="s">
+        <v>327</v>
+      </c>
+      <c r="O55" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="P55" s="7" t="s">
+        <v>329</v>
+      </c>
+      <c r="Q55" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="R55" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="S55" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="T55" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="V55" s="12"/>
+      <c r="W55" s="12"/>
+    </row>
+    <row r="56" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A56" s="3">
         <v>54</v>
       </c>
@@ -3795,26 +4885,43 @@
       <c r="I56" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="J56" s="6">
-        <v>8</v>
-      </c>
-      <c r="K56" s="6">
-        <v>7</v>
-      </c>
-      <c r="L56" s="6">
-        <v>8</v>
-      </c>
-      <c r="M56" s="6">
-        <v>9</v>
-      </c>
-      <c r="N56" s="7" t="s">
-        <v>323</v>
-      </c>
-      <c r="O56" s="10" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="J56" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="K56" s="6" t="s">
+        <v>328</v>
+      </c>
+      <c r="L56" s="6" t="s">
+        <v>329</v>
+      </c>
+      <c r="M56" s="6" t="s">
+        <v>327</v>
+      </c>
+      <c r="N56" s="6" t="s">
+        <v>332</v>
+      </c>
+      <c r="O56" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="P56" s="7" t="s">
+        <v>329</v>
+      </c>
+      <c r="Q56" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="R56" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="S56" s="7" t="s">
+        <v>329</v>
+      </c>
+      <c r="T56" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="V56" s="12"/>
+      <c r="W56" s="12"/>
+    </row>
+    <row r="57" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A57" s="2">
         <v>55</v>
       </c>
@@ -3838,26 +4945,43 @@
       <c r="I57" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="J57" s="6">
-        <v>5</v>
-      </c>
-      <c r="K57" s="6">
-        <v>5</v>
-      </c>
-      <c r="L57" s="6">
-        <v>7</v>
-      </c>
-      <c r="M57" s="6">
-        <v>7</v>
-      </c>
-      <c r="N57" s="7" t="s">
-        <v>321</v>
-      </c>
-      <c r="O57" s="10" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="58" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="J57" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="K57" s="6" t="s">
+        <v>329</v>
+      </c>
+      <c r="L57" s="6" t="s">
+        <v>327</v>
+      </c>
+      <c r="M57" s="6" t="s">
+        <v>329</v>
+      </c>
+      <c r="N57" s="6" t="s">
+        <v>328</v>
+      </c>
+      <c r="O57" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="P57" s="7" t="s">
+        <v>329</v>
+      </c>
+      <c r="Q57" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="R57" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="S57" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="T57" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="V57" s="12"/>
+      <c r="W57" s="12"/>
+    </row>
+    <row r="58" spans="1:23" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A58" s="2">
         <v>56</v>
       </c>
@@ -3881,26 +5005,43 @@
       <c r="I58" s="3" t="s">
         <v>192</v>
       </c>
-      <c r="J58" s="8">
-        <v>4</v>
-      </c>
-      <c r="K58" s="8">
-        <v>7</v>
-      </c>
-      <c r="L58" s="8">
-        <v>8</v>
-      </c>
-      <c r="M58" s="8">
-        <v>9</v>
+      <c r="J58" s="3" t="s">
+        <v>326</v>
+      </c>
+      <c r="K58" s="8" t="s">
+        <v>329</v>
+      </c>
+      <c r="L58" s="8" t="s">
+        <v>328</v>
+      </c>
+      <c r="M58" s="8" t="s">
+        <v>329</v>
       </c>
       <c r="N58" s="8" t="s">
-        <v>321</v>
-      </c>
-      <c r="O58" s="10" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
+        <v>330</v>
+      </c>
+      <c r="O58" s="8" t="s">
+        <v>327</v>
+      </c>
+      <c r="P58" s="8" t="s">
+        <v>329</v>
+      </c>
+      <c r="Q58" s="8" t="s">
+        <v>331</v>
+      </c>
+      <c r="R58" s="8" t="s">
+        <v>332</v>
+      </c>
+      <c r="S58" s="8" t="s">
+        <v>327</v>
+      </c>
+      <c r="T58" s="8" t="s">
+        <v>328</v>
+      </c>
+      <c r="V58" s="13"/>
+      <c r="W58" s="13"/>
+    </row>
+    <row r="59" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A59" s="2">
         <v>57</v>
       </c>
@@ -3924,26 +5065,43 @@
       <c r="I59" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="J59" s="6">
-        <v>8</v>
-      </c>
-      <c r="K59" s="6">
-        <v>8</v>
-      </c>
-      <c r="L59" s="6">
-        <v>8</v>
-      </c>
-      <c r="M59" s="6">
-        <v>9</v>
-      </c>
-      <c r="N59" s="7" t="s">
-        <v>321</v>
-      </c>
-      <c r="O59" s="10" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="J59" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="K59" s="6" t="s">
+        <v>328</v>
+      </c>
+      <c r="L59" s="6" t="s">
+        <v>328</v>
+      </c>
+      <c r="M59" s="6" t="s">
+        <v>332</v>
+      </c>
+      <c r="N59" s="6" t="s">
+        <v>332</v>
+      </c>
+      <c r="O59" s="7" t="s">
+        <v>328</v>
+      </c>
+      <c r="P59" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="Q59" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="R59" s="7" t="s">
+        <v>329</v>
+      </c>
+      <c r="S59" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="T59" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="V59" s="12"/>
+      <c r="W59" s="12"/>
+    </row>
+    <row r="60" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A60" s="2">
         <v>58</v>
       </c>
@@ -3967,26 +5125,43 @@
       <c r="I60" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="J60" s="6">
-        <v>3</v>
-      </c>
-      <c r="K60" s="6">
-        <v>8</v>
-      </c>
-      <c r="L60" s="6">
-        <v>5</v>
-      </c>
-      <c r="M60" s="6">
-        <v>7</v>
-      </c>
-      <c r="N60" s="7" t="s">
-        <v>321</v>
-      </c>
-      <c r="O60" s="10" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="J60" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="K60" s="6" t="s">
+        <v>327</v>
+      </c>
+      <c r="L60" s="6" t="s">
+        <v>332</v>
+      </c>
+      <c r="M60" s="6" t="s">
+        <v>328</v>
+      </c>
+      <c r="N60" s="6" t="s">
+        <v>327</v>
+      </c>
+      <c r="O60" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="P60" s="7" t="s">
+        <v>329</v>
+      </c>
+      <c r="Q60" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="R60" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="S60" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="T60" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="V60" s="12"/>
+      <c r="W60" s="12"/>
+    </row>
+    <row r="61" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A61" s="2">
         <v>59</v>
       </c>
@@ -4010,26 +5185,43 @@
       <c r="I61" s="2" t="s">
         <v>202</v>
       </c>
-      <c r="J61" s="6">
-        <v>6</v>
-      </c>
-      <c r="K61" s="6">
-        <v>8</v>
-      </c>
-      <c r="L61" s="6">
-        <v>6</v>
-      </c>
-      <c r="M61" s="6">
-        <v>9</v>
-      </c>
-      <c r="N61" s="7" t="s">
-        <v>321</v>
-      </c>
-      <c r="O61" s="10" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="J61" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="K61" s="6" t="s">
+        <v>328</v>
+      </c>
+      <c r="L61" s="6" t="s">
+        <v>327</v>
+      </c>
+      <c r="M61" s="6" t="s">
+        <v>332</v>
+      </c>
+      <c r="N61" s="6" t="s">
+        <v>329</v>
+      </c>
+      <c r="O61" s="7" t="s">
+        <v>329</v>
+      </c>
+      <c r="P61" s="7" t="s">
+        <v>328</v>
+      </c>
+      <c r="Q61" s="7" t="s">
+        <v>328</v>
+      </c>
+      <c r="R61" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="S61" s="7" t="s">
+        <v>328</v>
+      </c>
+      <c r="T61" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="V61" s="12"/>
+      <c r="W61" s="12"/>
+    </row>
+    <row r="62" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A62" s="2">
         <v>60</v>
       </c>
@@ -4053,26 +5245,43 @@
       <c r="I62" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="J62" s="6">
-        <v>9</v>
-      </c>
-      <c r="K62" s="6">
-        <v>10</v>
-      </c>
-      <c r="L62" s="6">
-        <v>7</v>
-      </c>
-      <c r="M62" s="6">
-        <v>9</v>
-      </c>
-      <c r="N62" s="7" t="s">
-        <v>322</v>
-      </c>
-      <c r="O62" s="10" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="J62" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="K62" s="6" t="s">
+        <v>329</v>
+      </c>
+      <c r="L62" s="6" t="s">
+        <v>332</v>
+      </c>
+      <c r="M62" s="6" t="s">
+        <v>327</v>
+      </c>
+      <c r="N62" s="6" t="s">
+        <v>328</v>
+      </c>
+      <c r="O62" s="7" t="s">
+        <v>328</v>
+      </c>
+      <c r="P62" s="7" t="s">
+        <v>329</v>
+      </c>
+      <c r="Q62" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="R62" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="S62" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="T62" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="V62" s="12"/>
+      <c r="W62" s="12"/>
+    </row>
+    <row r="63" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A63" s="2">
         <v>61</v>
       </c>
@@ -4096,26 +5305,43 @@
       <c r="I63" s="2" t="s">
         <v>208</v>
       </c>
-      <c r="J63" s="6">
-        <v>7</v>
-      </c>
-      <c r="K63" s="6">
-        <v>9</v>
-      </c>
-      <c r="L63" s="6">
-        <v>10</v>
-      </c>
-      <c r="M63" s="6">
-        <v>6</v>
-      </c>
-      <c r="N63" s="7" t="s">
-        <v>321</v>
-      </c>
-      <c r="O63" s="10" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="J63" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="K63" s="6" t="s">
+        <v>329</v>
+      </c>
+      <c r="L63" s="6" t="s">
+        <v>327</v>
+      </c>
+      <c r="M63" s="6" t="s">
+        <v>329</v>
+      </c>
+      <c r="N63" s="6" t="s">
+        <v>329</v>
+      </c>
+      <c r="O63" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="P63" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="Q63" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="R63" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="S63" s="7" t="s">
+        <v>329</v>
+      </c>
+      <c r="T63" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="V63" s="12"/>
+      <c r="W63" s="12"/>
+    </row>
+    <row r="64" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A64" s="3">
         <v>62</v>
       </c>
@@ -4139,26 +5365,43 @@
       <c r="I64" s="2" t="s">
         <v>211</v>
       </c>
-      <c r="J64" s="6">
-        <v>7</v>
-      </c>
-      <c r="K64" s="6">
-        <v>7</v>
-      </c>
-      <c r="L64" s="6">
-        <v>8</v>
-      </c>
-      <c r="M64" s="7">
-        <v>7</v>
+      <c r="J64" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="K64" s="6" t="s">
+        <v>329</v>
+      </c>
+      <c r="L64" s="6" t="s">
+        <v>329</v>
+      </c>
+      <c r="M64" s="6" t="s">
+        <v>327</v>
       </c>
       <c r="N64" s="7" t="s">
-        <v>323</v>
-      </c>
-      <c r="O64" s="10" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.25">
+        <v>332</v>
+      </c>
+      <c r="O64" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="P64" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="Q64" s="7" t="s">
+        <v>329</v>
+      </c>
+      <c r="R64" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="S64" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="T64" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="V64" s="12"/>
+      <c r="W64" s="12"/>
+    </row>
+    <row r="65" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A65" s="2">
         <v>63</v>
       </c>
@@ -4182,26 +5425,43 @@
       <c r="I65" s="2" t="s">
         <v>214</v>
       </c>
-      <c r="J65" s="6">
-        <v>4</v>
-      </c>
-      <c r="K65" s="6">
-        <v>8</v>
-      </c>
-      <c r="L65" s="6">
-        <v>6</v>
-      </c>
-      <c r="M65" s="6">
-        <v>7</v>
-      </c>
-      <c r="N65" s="7" t="s">
-        <v>322</v>
-      </c>
-      <c r="O65" s="10" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="J65" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="K65" s="6" t="s">
+        <v>328</v>
+      </c>
+      <c r="L65" s="6" t="s">
+        <v>328</v>
+      </c>
+      <c r="M65" s="6" t="s">
+        <v>328</v>
+      </c>
+      <c r="N65" s="6" t="s">
+        <v>327</v>
+      </c>
+      <c r="O65" s="7" t="s">
+        <v>328</v>
+      </c>
+      <c r="P65" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="Q65" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="R65" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="S65" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="T65" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="V65" s="12"/>
+      <c r="W65" s="12"/>
+    </row>
+    <row r="66" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A66" s="2">
         <v>64</v>
       </c>
@@ -4225,16 +5485,43 @@
       <c r="I66" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="J66" s="6"/>
-      <c r="K66" s="6"/>
-      <c r="L66" s="6"/>
-      <c r="M66" s="6"/>
-      <c r="N66" s="7"/>
-      <c r="O66" s="10" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="J66" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="K66" s="6" t="s">
+        <v>327</v>
+      </c>
+      <c r="L66" s="6" t="s">
+        <v>328</v>
+      </c>
+      <c r="M66" s="6" t="s">
+        <v>328</v>
+      </c>
+      <c r="N66" s="6" t="s">
+        <v>329</v>
+      </c>
+      <c r="O66" s="7" t="s">
+        <v>328</v>
+      </c>
+      <c r="P66" s="6" t="s">
+        <v>328</v>
+      </c>
+      <c r="Q66" s="6" t="s">
+        <v>329</v>
+      </c>
+      <c r="R66" s="6" t="s">
+        <v>329</v>
+      </c>
+      <c r="S66" s="6" t="s">
+        <v>328</v>
+      </c>
+      <c r="T66" s="6" t="s">
+        <v>329</v>
+      </c>
+      <c r="V66" s="12"/>
+      <c r="W66" s="12"/>
+    </row>
+    <row r="67" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A67" s="2">
         <v>65</v>
       </c>
@@ -4258,26 +5545,43 @@
       <c r="I67" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="J67" s="6">
-        <v>2</v>
-      </c>
-      <c r="K67" s="6">
-        <v>2</v>
-      </c>
-      <c r="L67" s="6">
-        <v>2</v>
-      </c>
-      <c r="M67" s="6">
-        <v>4</v>
-      </c>
-      <c r="N67" s="7" t="s">
-        <v>324</v>
-      </c>
-      <c r="O67" s="10" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="J67" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="K67" s="6" t="s">
+        <v>329</v>
+      </c>
+      <c r="L67" s="6" t="s">
+        <v>332</v>
+      </c>
+      <c r="M67" s="6" t="s">
+        <v>327</v>
+      </c>
+      <c r="N67" s="6" t="s">
+        <v>327</v>
+      </c>
+      <c r="O67" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="P67" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="Q67" s="7" t="s">
+        <v>328</v>
+      </c>
+      <c r="R67" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="S67" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="T67" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="V67" s="12"/>
+      <c r="W67" s="12"/>
+    </row>
+    <row r="68" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A68" s="2">
         <v>66</v>
       </c>
@@ -4301,16 +5605,43 @@
       <c r="I68" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="J68" s="6"/>
-      <c r="K68" s="6"/>
-      <c r="L68" s="6"/>
-      <c r="M68" s="6"/>
-      <c r="N68" s="7"/>
-      <c r="O68" s="10" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="J68" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="K68" s="6" t="s">
+        <v>329</v>
+      </c>
+      <c r="L68" s="6" t="s">
+        <v>328</v>
+      </c>
+      <c r="M68" s="6" t="s">
+        <v>327</v>
+      </c>
+      <c r="N68" s="6" t="s">
+        <v>332</v>
+      </c>
+      <c r="O68" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="P68" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="Q68" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="R68" s="7" t="s">
+        <v>328</v>
+      </c>
+      <c r="S68" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="T68" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="V68" s="12"/>
+      <c r="W68" s="12"/>
+    </row>
+    <row r="69" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A69" s="2">
         <v>67</v>
       </c>
@@ -4334,26 +5665,43 @@
       <c r="I69" s="2" t="s">
         <v>310</v>
       </c>
-      <c r="J69" s="6">
-        <v>6</v>
-      </c>
-      <c r="K69" s="6">
-        <v>4</v>
-      </c>
-      <c r="L69" s="6">
-        <v>4</v>
-      </c>
-      <c r="M69" s="6">
-        <v>6</v>
-      </c>
-      <c r="N69" s="7" t="s">
-        <v>321</v>
-      </c>
-      <c r="O69" s="10" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="70" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="J69" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="K69" s="6" t="s">
+        <v>329</v>
+      </c>
+      <c r="L69" s="6" t="s">
+        <v>329</v>
+      </c>
+      <c r="M69" s="6" t="s">
+        <v>329</v>
+      </c>
+      <c r="N69" s="6" t="s">
+        <v>327</v>
+      </c>
+      <c r="O69" s="7" t="s">
+        <v>329</v>
+      </c>
+      <c r="P69" s="7" t="s">
+        <v>328</v>
+      </c>
+      <c r="Q69" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="R69" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="S69" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="T69" s="7" t="s">
+        <v>328</v>
+      </c>
+      <c r="V69" s="12"/>
+      <c r="W69" s="12"/>
+    </row>
+    <row r="70" spans="1:23" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A70" s="2">
         <v>68</v>
       </c>
@@ -4377,26 +5725,43 @@
       <c r="I70" s="3" t="s">
         <v>228</v>
       </c>
-      <c r="J70" s="8">
-        <v>7</v>
-      </c>
-      <c r="K70" s="8">
-        <v>8</v>
-      </c>
-      <c r="L70" s="8">
-        <v>7</v>
-      </c>
-      <c r="M70" s="8">
-        <v>6</v>
+      <c r="J70" s="3" t="s">
+        <v>385</v>
+      </c>
+      <c r="K70" s="8" t="s">
+        <v>329</v>
+      </c>
+      <c r="L70" s="8" t="s">
+        <v>327</v>
+      </c>
+      <c r="M70" s="8" t="s">
+        <v>327</v>
       </c>
       <c r="N70" s="8" t="s">
-        <v>321</v>
-      </c>
-      <c r="O70" s="10" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.25">
+        <v>329</v>
+      </c>
+      <c r="O70" s="8" t="s">
+        <v>329</v>
+      </c>
+      <c r="P70" s="8" t="s">
+        <v>327</v>
+      </c>
+      <c r="Q70" s="8" t="s">
+        <v>327</v>
+      </c>
+      <c r="R70" s="8" t="s">
+        <v>327</v>
+      </c>
+      <c r="S70" s="8" t="s">
+        <v>329</v>
+      </c>
+      <c r="T70" s="8" t="s">
+        <v>327</v>
+      </c>
+      <c r="V70" s="13"/>
+      <c r="W70" s="13"/>
+    </row>
+    <row r="71" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A71" s="2">
         <v>69</v>
       </c>
@@ -4420,26 +5785,43 @@
       <c r="I71" s="2" t="s">
         <v>231</v>
       </c>
-      <c r="J71" s="6">
-        <v>6</v>
-      </c>
-      <c r="K71" s="6">
-        <v>6</v>
-      </c>
-      <c r="L71" s="6">
-        <v>6</v>
-      </c>
-      <c r="M71" s="6">
-        <v>5</v>
-      </c>
-      <c r="N71" s="7" t="s">
-        <v>321</v>
-      </c>
-      <c r="O71" s="10" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="J71" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="K71" s="6" t="s">
+        <v>327</v>
+      </c>
+      <c r="L71" s="6" t="s">
+        <v>327</v>
+      </c>
+      <c r="M71" s="6" t="s">
+        <v>329</v>
+      </c>
+      <c r="N71" s="6" t="s">
+        <v>332</v>
+      </c>
+      <c r="O71" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="P71" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="Q71" s="7" t="s">
+        <v>328</v>
+      </c>
+      <c r="R71" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="S71" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="T71" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="V71" s="12"/>
+      <c r="W71" s="12"/>
+    </row>
+    <row r="72" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A72" s="3">
         <v>70</v>
       </c>
@@ -4463,26 +5845,43 @@
       <c r="I72" s="2" t="s">
         <v>234</v>
       </c>
-      <c r="J72" s="6">
-        <v>8</v>
-      </c>
-      <c r="K72" s="6">
-        <v>8</v>
-      </c>
-      <c r="L72" s="6">
-        <v>8</v>
-      </c>
-      <c r="M72" s="6">
-        <v>8</v>
-      </c>
-      <c r="N72" s="7" t="s">
-        <v>321</v>
-      </c>
-      <c r="O72" s="10" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="J72" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="K72" s="6" t="s">
+        <v>329</v>
+      </c>
+      <c r="L72" s="6" t="s">
+        <v>327</v>
+      </c>
+      <c r="M72" s="6" t="s">
+        <v>329</v>
+      </c>
+      <c r="N72" s="6" t="s">
+        <v>327</v>
+      </c>
+      <c r="O72" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="P72" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="Q72" s="7" t="s">
+        <v>329</v>
+      </c>
+      <c r="R72" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="S72" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="T72" s="7" t="s">
+        <v>329</v>
+      </c>
+      <c r="V72" s="12"/>
+      <c r="W72" s="12"/>
+    </row>
+    <row r="73" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A73" s="2">
         <v>71</v>
       </c>
@@ -4506,16 +5905,43 @@
       <c r="I73" s="2" t="s">
         <v>237</v>
       </c>
-      <c r="J73" s="6"/>
-      <c r="K73" s="6"/>
-      <c r="L73" s="6"/>
-      <c r="M73" s="6"/>
-      <c r="N73" s="7"/>
-      <c r="O73" s="10" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="J73" s="2" t="s">
+        <v>390</v>
+      </c>
+      <c r="K73" s="6" t="s">
+        <v>329</v>
+      </c>
+      <c r="L73" s="6" t="s">
+        <v>327</v>
+      </c>
+      <c r="M73" s="6" t="s">
+        <v>327</v>
+      </c>
+      <c r="N73" s="6" t="s">
+        <v>327</v>
+      </c>
+      <c r="O73" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="P73" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="Q73" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="R73" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="S73" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="T73" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="V73" s="12"/>
+      <c r="W73" s="12"/>
+    </row>
+    <row r="74" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A74" s="2">
         <v>72</v>
       </c>
@@ -4539,26 +5965,43 @@
       <c r="I74" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="J74" s="6">
-        <v>6</v>
-      </c>
-      <c r="K74" s="6">
-        <v>7</v>
-      </c>
-      <c r="L74" s="6">
-        <v>7</v>
-      </c>
-      <c r="M74" s="6">
-        <v>5</v>
-      </c>
-      <c r="N74" s="7" t="s">
-        <v>321</v>
-      </c>
-      <c r="O74" s="10" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="J74" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="K74" s="6" t="s">
+        <v>329</v>
+      </c>
+      <c r="L74" s="6" t="s">
+        <v>327</v>
+      </c>
+      <c r="M74" s="6" t="s">
+        <v>332</v>
+      </c>
+      <c r="N74" s="6" t="s">
+        <v>328</v>
+      </c>
+      <c r="O74" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="P74" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="Q74" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="R74" s="7" t="s">
+        <v>328</v>
+      </c>
+      <c r="S74" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="T74" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="V74" s="12"/>
+      <c r="W74" s="12"/>
+    </row>
+    <row r="75" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A75" s="2">
         <v>73</v>
       </c>
@@ -4582,16 +6025,43 @@
       <c r="I75" s="2" t="s">
         <v>243</v>
       </c>
-      <c r="J75" s="6"/>
-      <c r="K75" s="6"/>
-      <c r="L75" s="6"/>
-      <c r="M75" s="6"/>
-      <c r="N75" s="7"/>
-      <c r="O75" s="10" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="76" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="J75" s="2" t="s">
+        <v>387</v>
+      </c>
+      <c r="K75" s="6" t="s">
+        <v>329</v>
+      </c>
+      <c r="L75" s="6" t="s">
+        <v>327</v>
+      </c>
+      <c r="M75" s="6" t="s">
+        <v>332</v>
+      </c>
+      <c r="N75" s="6" t="s">
+        <v>329</v>
+      </c>
+      <c r="O75" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="P75" s="7" t="s">
+        <v>329</v>
+      </c>
+      <c r="Q75" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="R75" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="S75" s="7" t="s">
+        <v>329</v>
+      </c>
+      <c r="T75" s="7" t="s">
+        <v>329</v>
+      </c>
+      <c r="V75" s="12"/>
+      <c r="W75" s="12"/>
+    </row>
+    <row r="76" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A76" s="2">
         <v>74</v>
       </c>
@@ -4615,26 +6085,43 @@
       <c r="I76" s="2" t="s">
         <v>246</v>
       </c>
-      <c r="J76" s="6">
-        <v>7</v>
-      </c>
-      <c r="K76" s="6">
-        <v>8</v>
-      </c>
-      <c r="L76" s="6">
-        <v>6</v>
-      </c>
-      <c r="M76" s="6">
-        <v>9</v>
-      </c>
-      <c r="N76" s="7" t="s">
-        <v>321</v>
-      </c>
-      <c r="O76" s="10" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="77" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="J76" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="K76" s="6" t="s">
+        <v>328</v>
+      </c>
+      <c r="L76" s="6" t="s">
+        <v>332</v>
+      </c>
+      <c r="M76" s="6" t="s">
+        <v>327</v>
+      </c>
+      <c r="N76" s="6" t="s">
+        <v>327</v>
+      </c>
+      <c r="O76" s="7" t="s">
+        <v>329</v>
+      </c>
+      <c r="P76" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="Q76" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="R76" s="7" t="s">
+        <v>328</v>
+      </c>
+      <c r="S76" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="T76" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="V76" s="12"/>
+      <c r="W76" s="12"/>
+    </row>
+    <row r="77" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A77" s="2">
         <v>75</v>
       </c>
@@ -4658,26 +6145,43 @@
       <c r="I77" s="2" t="s">
         <v>249</v>
       </c>
-      <c r="J77" s="6">
-        <v>4</v>
-      </c>
-      <c r="K77" s="6">
-        <v>7</v>
-      </c>
-      <c r="L77" s="6">
-        <v>5</v>
-      </c>
-      <c r="M77" s="6">
-        <v>6</v>
-      </c>
-      <c r="N77" s="7" t="s">
-        <v>321</v>
-      </c>
-      <c r="O77" s="10" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="78" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="J77" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="K77" s="6" t="s">
+        <v>329</v>
+      </c>
+      <c r="L77" s="6" t="s">
+        <v>327</v>
+      </c>
+      <c r="M77" s="6" t="s">
+        <v>327</v>
+      </c>
+      <c r="N77" s="6" t="s">
+        <v>332</v>
+      </c>
+      <c r="O77" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="P77" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="Q77" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="R77" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="S77" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="T77" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="V77" s="12"/>
+      <c r="W77" s="12"/>
+    </row>
+    <row r="78" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A78" s="2">
         <v>76</v>
       </c>
@@ -4701,26 +6205,21 @@
       <c r="I78" s="2" t="s">
         <v>252</v>
       </c>
-      <c r="J78" s="6">
-        <v>10</v>
-      </c>
-      <c r="K78" s="6">
-        <v>8</v>
-      </c>
-      <c r="L78" s="6">
-        <v>8</v>
-      </c>
-      <c r="M78" s="6">
-        <v>8</v>
-      </c>
-      <c r="N78" s="7" t="s">
-        <v>323</v>
-      </c>
-      <c r="O78" s="10" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="79" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="J78" s="2"/>
+      <c r="K78" s="6"/>
+      <c r="L78" s="6"/>
+      <c r="M78" s="6"/>
+      <c r="N78" s="6"/>
+      <c r="O78" s="7"/>
+      <c r="P78" s="7"/>
+      <c r="Q78" s="7"/>
+      <c r="R78" s="7"/>
+      <c r="S78" s="7"/>
+      <c r="T78" s="7"/>
+      <c r="V78" s="12"/>
+      <c r="W78" s="12"/>
+    </row>
+    <row r="79" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A79" s="2">
         <v>77</v>
       </c>
@@ -4744,26 +6243,43 @@
       <c r="I79" s="2" t="s">
         <v>256</v>
       </c>
-      <c r="J79" s="6">
-        <v>8</v>
-      </c>
-      <c r="K79" s="6">
-        <v>8</v>
-      </c>
-      <c r="L79" s="6">
-        <v>8</v>
-      </c>
-      <c r="M79" s="6">
-        <v>8</v>
-      </c>
-      <c r="N79" s="7" t="s">
-        <v>323</v>
-      </c>
-      <c r="O79" s="10" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="80" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="J79" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="K79" s="6" t="s">
+        <v>329</v>
+      </c>
+      <c r="L79" s="6" t="s">
+        <v>327</v>
+      </c>
+      <c r="M79" s="6" t="s">
+        <v>327</v>
+      </c>
+      <c r="N79" s="6" t="s">
+        <v>329</v>
+      </c>
+      <c r="O79" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="P79" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="Q79" s="7" t="s">
+        <v>329</v>
+      </c>
+      <c r="R79" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="S79" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="T79" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="V79" s="12"/>
+      <c r="W79" s="12"/>
+    </row>
+    <row r="80" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A80" s="3">
         <v>78</v>
       </c>
@@ -4785,28 +6301,45 @@
       </c>
       <c r="H80" s="1"/>
       <c r="I80" s="2" t="s">
-        <v>314</v>
-      </c>
-      <c r="J80" s="6">
-        <v>4</v>
-      </c>
-      <c r="K80" s="6">
-        <v>4</v>
-      </c>
-      <c r="L80" s="6">
-        <v>5</v>
-      </c>
-      <c r="M80" s="6">
-        <v>5</v>
-      </c>
-      <c r="N80" s="7" t="s">
-        <v>322</v>
-      </c>
-      <c r="O80" s="10" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="81" spans="1:15" x14ac:dyDescent="0.25">
+        <v>311</v>
+      </c>
+      <c r="J80" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="K80" s="6" t="s">
+        <v>328</v>
+      </c>
+      <c r="L80" s="6" t="s">
+        <v>329</v>
+      </c>
+      <c r="M80" s="6" t="s">
+        <v>328</v>
+      </c>
+      <c r="N80" s="6" t="s">
+        <v>332</v>
+      </c>
+      <c r="O80" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="P80" s="7" t="s">
+        <v>329</v>
+      </c>
+      <c r="Q80" s="7" t="s">
+        <v>329</v>
+      </c>
+      <c r="R80" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="S80" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="T80" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="V80" s="12"/>
+      <c r="W80" s="12"/>
+    </row>
+    <row r="81" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A81" s="2">
         <v>79</v>
       </c>
@@ -4830,26 +6363,43 @@
       <c r="I81" s="2" t="s">
         <v>261</v>
       </c>
-      <c r="J81" s="6">
-        <v>7</v>
-      </c>
-      <c r="K81" s="6">
-        <v>5</v>
-      </c>
-      <c r="L81" s="6">
-        <v>6</v>
-      </c>
-      <c r="M81" s="6">
-        <v>7</v>
-      </c>
-      <c r="N81" s="7" t="s">
-        <v>322</v>
-      </c>
-      <c r="O81" s="10" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="82" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="J81" s="2" t="s">
+        <v>367</v>
+      </c>
+      <c r="K81" s="6" t="s">
+        <v>332</v>
+      </c>
+      <c r="L81" s="6" t="s">
+        <v>327</v>
+      </c>
+      <c r="M81" s="6" t="s">
+        <v>327</v>
+      </c>
+      <c r="N81" s="6" t="s">
+        <v>329</v>
+      </c>
+      <c r="O81" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="P81" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="Q81" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="R81" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="S81" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="T81" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="V81" s="12"/>
+      <c r="W81" s="12"/>
+    </row>
+    <row r="82" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A82" s="2">
         <v>80</v>
       </c>
@@ -4873,26 +6423,43 @@
       <c r="I82" s="2" t="s">
         <v>264</v>
       </c>
-      <c r="J82" s="6">
-        <v>5</v>
-      </c>
-      <c r="K82" s="6">
-        <v>10</v>
-      </c>
-      <c r="L82" s="6">
-        <v>10</v>
-      </c>
-      <c r="M82" s="6">
-        <v>5</v>
-      </c>
-      <c r="N82" s="7" t="s">
-        <v>322</v>
-      </c>
-      <c r="O82" s="10" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="83" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="J82" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="K82" s="6" t="s">
+        <v>328</v>
+      </c>
+      <c r="L82" s="6" t="s">
+        <v>327</v>
+      </c>
+      <c r="M82" s="6" t="s">
+        <v>327</v>
+      </c>
+      <c r="N82" s="6" t="s">
+        <v>327</v>
+      </c>
+      <c r="O82" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="P82" s="7" t="s">
+        <v>328</v>
+      </c>
+      <c r="Q82" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="R82" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="S82" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="T82" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="V82" s="12"/>
+      <c r="W82" s="12"/>
+    </row>
+    <row r="83" spans="1:23" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A83" s="2">
         <v>81</v>
       </c>
@@ -4916,26 +6483,43 @@
       <c r="I83" s="3" t="s">
         <v>267</v>
       </c>
-      <c r="J83" s="8">
-        <v>7</v>
-      </c>
-      <c r="K83" s="8">
-        <v>8</v>
-      </c>
-      <c r="L83" s="8">
-        <v>7</v>
-      </c>
-      <c r="M83" s="8">
-        <v>8</v>
+      <c r="J83" s="3" t="s">
+        <v>361</v>
+      </c>
+      <c r="K83" s="8" t="s">
+        <v>329</v>
+      </c>
+      <c r="L83" s="8" t="s">
+        <v>327</v>
+      </c>
+      <c r="M83" s="8" t="s">
+        <v>328</v>
       </c>
       <c r="N83" s="8" t="s">
-        <v>321</v>
-      </c>
-      <c r="O83" s="10" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="84" spans="1:15" x14ac:dyDescent="0.25">
+        <v>327</v>
+      </c>
+      <c r="O83" s="8" t="s">
+        <v>329</v>
+      </c>
+      <c r="P83" s="8" t="s">
+        <v>332</v>
+      </c>
+      <c r="Q83" s="8" t="s">
+        <v>332</v>
+      </c>
+      <c r="R83" s="8" t="s">
+        <v>327</v>
+      </c>
+      <c r="S83" s="8" t="s">
+        <v>329</v>
+      </c>
+      <c r="T83" s="8" t="s">
+        <v>327</v>
+      </c>
+      <c r="V83" s="13"/>
+      <c r="W83" s="13"/>
+    </row>
+    <row r="84" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A84" s="2">
         <v>82</v>
       </c>
@@ -4959,26 +6543,43 @@
       <c r="I84" s="2" t="s">
         <v>270</v>
       </c>
-      <c r="J84" s="6">
-        <v>3</v>
-      </c>
-      <c r="K84" s="6">
-        <v>2</v>
-      </c>
-      <c r="L84" s="6">
-        <v>9</v>
-      </c>
-      <c r="M84" s="6">
-        <v>5</v>
-      </c>
-      <c r="N84" s="7" t="s">
-        <v>322</v>
-      </c>
-      <c r="O84" s="10" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="85" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="J84" s="2" t="s">
+        <v>374</v>
+      </c>
+      <c r="K84" s="6" t="s">
+        <v>327</v>
+      </c>
+      <c r="L84" s="6" t="s">
+        <v>327</v>
+      </c>
+      <c r="M84" s="6" t="s">
+        <v>329</v>
+      </c>
+      <c r="N84" s="6" t="s">
+        <v>328</v>
+      </c>
+      <c r="O84" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="P84" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="Q84" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="R84" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="S84" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="T84" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="V84" s="12"/>
+      <c r="W84" s="12"/>
+    </row>
+    <row r="85" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A85" s="2">
         <v>83</v>
       </c>
@@ -5002,26 +6603,43 @@
       <c r="I85" s="2" t="s">
         <v>273</v>
       </c>
-      <c r="J85" s="6">
-        <v>4</v>
-      </c>
-      <c r="K85" s="6">
-        <v>4</v>
-      </c>
-      <c r="L85" s="6">
-        <v>6</v>
-      </c>
-      <c r="M85" s="6">
-        <v>7</v>
-      </c>
-      <c r="N85" s="7" t="s">
-        <v>322</v>
-      </c>
-      <c r="O85" s="10" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="86" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="J85" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="K85" s="6" t="s">
+        <v>329</v>
+      </c>
+      <c r="L85" s="6" t="s">
+        <v>332</v>
+      </c>
+      <c r="M85" s="6" t="s">
+        <v>327</v>
+      </c>
+      <c r="N85" s="6" t="s">
+        <v>329</v>
+      </c>
+      <c r="O85" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="P85" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="Q85" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="R85" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="S85" s="7" t="s">
+        <v>329</v>
+      </c>
+      <c r="T85" s="7" t="s">
+        <v>328</v>
+      </c>
+      <c r="V85" s="12"/>
+      <c r="W85" s="12"/>
+    </row>
+    <row r="86" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A86" s="2">
         <v>84</v>
       </c>
@@ -5045,26 +6663,43 @@
       <c r="I86" s="2" t="s">
         <v>277</v>
       </c>
-      <c r="J86" s="6">
-        <v>5</v>
-      </c>
-      <c r="K86" s="6">
-        <v>3</v>
-      </c>
-      <c r="L86" s="6">
-        <v>5</v>
-      </c>
-      <c r="M86" s="6">
-        <v>4</v>
-      </c>
-      <c r="N86" s="7" t="s">
-        <v>322</v>
-      </c>
-      <c r="O86" s="10" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="87" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="J86" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="K86" s="6" t="s">
+        <v>329</v>
+      </c>
+      <c r="L86" s="6" t="s">
+        <v>327</v>
+      </c>
+      <c r="M86" s="6" t="s">
+        <v>327</v>
+      </c>
+      <c r="N86" s="6" t="s">
+        <v>329</v>
+      </c>
+      <c r="O86" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="P86" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="Q86" s="7" t="s">
+        <v>329</v>
+      </c>
+      <c r="R86" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="S86" s="7" t="s">
+        <v>329</v>
+      </c>
+      <c r="T86" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="V86" s="12"/>
+      <c r="W86" s="12"/>
+    </row>
+    <row r="87" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A87" s="2">
         <v>85</v>
       </c>
@@ -5088,26 +6723,44 @@
       <c r="I87" s="2" t="s">
         <v>280</v>
       </c>
-      <c r="J87" s="6">
-        <v>8</v>
-      </c>
-      <c r="K87" s="6">
-        <v>8</v>
-      </c>
-      <c r="L87" s="6">
-        <v>7</v>
-      </c>
-      <c r="M87" s="6">
-        <v>7</v>
-      </c>
-      <c r="N87" s="7" t="s">
-        <v>322</v>
-      </c>
-      <c r="O87" s="10" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="88" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="J87" s="2" t="s">
+        <v>388</v>
+      </c>
+      <c r="K87" s="6" t="s">
+        <v>329</v>
+      </c>
+      <c r="L87" s="6" t="s">
+        <v>327</v>
+      </c>
+      <c r="M87" s="6" t="s">
+        <v>329</v>
+      </c>
+      <c r="N87" s="6" t="s">
+        <v>331</v>
+      </c>
+      <c r="O87" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="P87" s="6" t="s">
+        <v>328</v>
+      </c>
+      <c r="Q87" s="6" t="s">
+        <v>332</v>
+      </c>
+      <c r="R87" s="6" t="s">
+        <v>327</v>
+      </c>
+      <c r="S87" s="6" t="s">
+        <v>328</v>
+      </c>
+      <c r="T87" s="6" t="s">
+        <v>332</v>
+      </c>
+      <c r="U87" s="11"/>
+      <c r="V87" s="12"/>
+      <c r="W87" s="12"/>
+    </row>
+    <row r="88" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A88" s="3">
         <v>86</v>
       </c>
@@ -5131,26 +6784,43 @@
       <c r="I88" s="2" t="s">
         <v>309</v>
       </c>
-      <c r="J88" s="6">
-        <v>9</v>
-      </c>
-      <c r="K88" s="6">
-        <v>8</v>
-      </c>
-      <c r="L88" s="6">
-        <v>10</v>
-      </c>
-      <c r="M88" s="6">
-        <v>9</v>
-      </c>
-      <c r="N88" s="7" t="s">
-        <v>321</v>
-      </c>
-      <c r="O88" s="10" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="89" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="J88" s="2" t="s">
+        <v>385</v>
+      </c>
+      <c r="K88" s="6" t="s">
+        <v>329</v>
+      </c>
+      <c r="L88" s="6" t="s">
+        <v>327</v>
+      </c>
+      <c r="M88" s="6" t="s">
+        <v>327</v>
+      </c>
+      <c r="N88" s="6" t="s">
+        <v>327</v>
+      </c>
+      <c r="O88" s="7" t="s">
+        <v>329</v>
+      </c>
+      <c r="P88" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="Q88" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="R88" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="S88" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="T88" s="7" t="s">
+        <v>329</v>
+      </c>
+      <c r="V88" s="12"/>
+      <c r="W88" s="12"/>
+    </row>
+    <row r="89" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A89" s="2">
         <v>87</v>
       </c>
@@ -5174,26 +6844,43 @@
       <c r="I89" s="2" t="s">
         <v>285</v>
       </c>
-      <c r="J89" s="6">
-        <v>6</v>
-      </c>
-      <c r="K89" s="6">
-        <v>7</v>
-      </c>
-      <c r="L89" s="6">
-        <v>4</v>
-      </c>
-      <c r="M89" s="6">
-        <v>7</v>
-      </c>
-      <c r="N89" s="7" t="s">
-        <v>321</v>
-      </c>
-      <c r="O89" s="10" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="90" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="J89" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="K89" s="6" t="s">
+        <v>328</v>
+      </c>
+      <c r="L89" s="6" t="s">
+        <v>332</v>
+      </c>
+      <c r="M89" s="6" t="s">
+        <v>327</v>
+      </c>
+      <c r="N89" s="6" t="s">
+        <v>332</v>
+      </c>
+      <c r="O89" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="P89" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="Q89" s="7" t="s">
+        <v>328</v>
+      </c>
+      <c r="R89" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="S89" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="T89" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="V89" s="12"/>
+      <c r="W89" s="12"/>
+    </row>
+    <row r="90" spans="1:23" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A90" s="2">
         <v>88</v>
       </c>
@@ -5217,26 +6904,43 @@
       <c r="I90" s="3" t="s">
         <v>288</v>
       </c>
-      <c r="J90" s="8">
-        <v>3</v>
-      </c>
-      <c r="K90" s="8">
-        <v>6</v>
-      </c>
-      <c r="L90" s="8">
-        <v>5</v>
-      </c>
-      <c r="M90" s="8">
-        <v>6</v>
+      <c r="J90" s="3" t="s">
+        <v>376</v>
+      </c>
+      <c r="K90" s="8" t="s">
+        <v>328</v>
+      </c>
+      <c r="L90" s="8" t="s">
+        <v>329</v>
+      </c>
+      <c r="M90" s="8" t="s">
+        <v>327</v>
       </c>
       <c r="N90" s="8" t="s">
-        <v>322</v>
-      </c>
-      <c r="O90" s="10" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="91" spans="1:15" x14ac:dyDescent="0.25">
+        <v>328</v>
+      </c>
+      <c r="O90" s="8" t="s">
+        <v>332</v>
+      </c>
+      <c r="P90" s="8" t="s">
+        <v>332</v>
+      </c>
+      <c r="Q90" s="8" t="s">
+        <v>332</v>
+      </c>
+      <c r="R90" s="8" t="s">
+        <v>332</v>
+      </c>
+      <c r="S90" s="8" t="s">
+        <v>328</v>
+      </c>
+      <c r="T90" s="8" t="s">
+        <v>327</v>
+      </c>
+      <c r="V90" s="13"/>
+      <c r="W90" s="13"/>
+    </row>
+    <row r="91" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A91" s="2">
         <v>89</v>
       </c>
@@ -5260,26 +6964,43 @@
       <c r="I91" s="2" t="s">
         <v>291</v>
       </c>
-      <c r="J91" s="6">
-        <v>8</v>
-      </c>
-      <c r="K91" s="6">
-        <v>7</v>
-      </c>
-      <c r="L91" s="6">
-        <v>8</v>
-      </c>
-      <c r="M91" s="6">
-        <v>7</v>
-      </c>
-      <c r="N91" s="7" t="s">
-        <v>322</v>
-      </c>
-      <c r="O91" s="10" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="92" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="J91" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="K91" s="6" t="s">
+        <v>328</v>
+      </c>
+      <c r="L91" s="6" t="s">
+        <v>332</v>
+      </c>
+      <c r="M91" s="6" t="s">
+        <v>332</v>
+      </c>
+      <c r="N91" s="6" t="s">
+        <v>332</v>
+      </c>
+      <c r="O91" s="7" t="s">
+        <v>328</v>
+      </c>
+      <c r="P91" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="Q91" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="R91" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="S91" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="T91" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="V91" s="12"/>
+      <c r="W91" s="12"/>
+    </row>
+    <row r="92" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A92" s="2">
         <v>90</v>
       </c>
@@ -5303,26 +7024,43 @@
       <c r="I92" s="2" t="s">
         <v>294</v>
       </c>
-      <c r="J92" s="6">
-        <v>6</v>
-      </c>
-      <c r="K92" s="6">
-        <v>5</v>
-      </c>
-      <c r="L92" s="6">
-        <v>6</v>
-      </c>
-      <c r="M92" s="6">
-        <v>7</v>
-      </c>
-      <c r="N92" s="7" t="s">
-        <v>323</v>
-      </c>
-      <c r="O92" s="10" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="93" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="J92" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="K92" s="6" t="s">
+        <v>329</v>
+      </c>
+      <c r="L92" s="6" t="s">
+        <v>328</v>
+      </c>
+      <c r="M92" s="6" t="s">
+        <v>332</v>
+      </c>
+      <c r="N92" s="6" t="s">
+        <v>327</v>
+      </c>
+      <c r="O92" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="P92" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="Q92" s="7" t="s">
+        <v>329</v>
+      </c>
+      <c r="R92" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="S92" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="T92" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="V92" s="12"/>
+      <c r="W92" s="12"/>
+    </row>
+    <row r="93" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A93" s="2">
         <v>91</v>
       </c>
@@ -5334,7 +7072,7 @@
         <v>20166303</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>325</v>
+        <v>313</v>
       </c>
       <c r="F93" s="2">
         <v>1</v>
@@ -5346,26 +7084,43 @@
       <c r="I93" s="2" t="s">
         <v>296</v>
       </c>
-      <c r="J93" s="6">
-        <v>4</v>
-      </c>
-      <c r="K93" s="6">
-        <v>5</v>
-      </c>
-      <c r="L93" s="6">
-        <v>7</v>
-      </c>
-      <c r="M93" s="6">
-        <v>6</v>
-      </c>
-      <c r="N93" s="7" t="s">
-        <v>326</v>
-      </c>
-      <c r="O93" s="10" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="94" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="J93" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="K93" s="6" t="s">
+        <v>329</v>
+      </c>
+      <c r="L93" s="6" t="s">
+        <v>327</v>
+      </c>
+      <c r="M93" s="6" t="s">
+        <v>332</v>
+      </c>
+      <c r="N93" s="6" t="s">
+        <v>329</v>
+      </c>
+      <c r="O93" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="P93" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="Q93" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="R93" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="S93" s="7" t="s">
+        <v>329</v>
+      </c>
+      <c r="T93" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="V93" s="12"/>
+      <c r="W93" s="12"/>
+    </row>
+    <row r="94" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A94" s="2">
         <v>92</v>
       </c>
@@ -5389,26 +7144,43 @@
       <c r="I94" s="2" t="s">
         <v>299</v>
       </c>
-      <c r="J94" s="6">
-        <v>8</v>
-      </c>
-      <c r="K94" s="6">
-        <v>7</v>
-      </c>
-      <c r="L94" s="6">
-        <v>7</v>
-      </c>
-      <c r="M94" s="6">
-        <v>7</v>
-      </c>
-      <c r="N94" s="7" t="s">
-        <v>321</v>
-      </c>
-      <c r="O94" s="10" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="95" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="J94" s="2" t="s">
+        <v>388</v>
+      </c>
+      <c r="K94" s="6" t="s">
+        <v>332</v>
+      </c>
+      <c r="L94" s="6" t="s">
+        <v>328</v>
+      </c>
+      <c r="M94" s="6" t="s">
+        <v>327</v>
+      </c>
+      <c r="N94" s="6" t="s">
+        <v>328</v>
+      </c>
+      <c r="O94" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="P94" s="6" t="s">
+        <v>327</v>
+      </c>
+      <c r="Q94" s="6" t="s">
+        <v>327</v>
+      </c>
+      <c r="R94" s="6" t="s">
+        <v>327</v>
+      </c>
+      <c r="S94" s="6" t="s">
+        <v>329</v>
+      </c>
+      <c r="T94" s="6" t="s">
+        <v>331</v>
+      </c>
+      <c r="V94" s="12"/>
+      <c r="W94" s="12"/>
+    </row>
+    <row r="95" spans="1:23" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A95" s="2">
         <v>93</v>
       </c>
@@ -5432,26 +7204,43 @@
       <c r="I95" s="3" t="s">
         <v>302</v>
       </c>
-      <c r="J95" s="8">
-        <v>8</v>
-      </c>
-      <c r="K95" s="8">
-        <v>9</v>
-      </c>
-      <c r="L95" s="8">
-        <v>9</v>
-      </c>
-      <c r="M95" s="8">
-        <v>8</v>
+      <c r="J95" s="3" t="s">
+        <v>342</v>
+      </c>
+      <c r="K95" s="8" t="s">
+        <v>329</v>
+      </c>
+      <c r="L95" s="8" t="s">
+        <v>328</v>
+      </c>
+      <c r="M95" s="8" t="s">
+        <v>328</v>
       </c>
       <c r="N95" s="8" t="s">
-        <v>321</v>
-      </c>
-      <c r="O95" s="10" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="96" spans="1:15" x14ac:dyDescent="0.25">
+        <v>327</v>
+      </c>
+      <c r="O95" s="8" t="s">
+        <v>327</v>
+      </c>
+      <c r="P95" s="8" t="s">
+        <v>327</v>
+      </c>
+      <c r="Q95" s="8" t="s">
+        <v>329</v>
+      </c>
+      <c r="R95" s="8" t="s">
+        <v>332</v>
+      </c>
+      <c r="S95" s="8" t="s">
+        <v>327</v>
+      </c>
+      <c r="T95" s="8" t="s">
+        <v>332</v>
+      </c>
+      <c r="V95" s="13"/>
+      <c r="W95" s="13"/>
+    </row>
+    <row r="96" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A96" s="3">
         <v>94</v>
       </c>
@@ -5475,26 +7264,43 @@
       <c r="I96" s="2" t="s">
         <v>305</v>
       </c>
-      <c r="J96" s="6">
-        <v>7</v>
-      </c>
-      <c r="K96" s="6">
-        <v>7</v>
-      </c>
-      <c r="L96" s="6">
-        <v>7</v>
-      </c>
-      <c r="M96" s="6">
-        <v>6</v>
-      </c>
-      <c r="N96" s="7" t="s">
-        <v>323</v>
-      </c>
-      <c r="O96" s="10" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="97" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="J96" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="K96" s="6" t="s">
+        <v>328</v>
+      </c>
+      <c r="L96" s="6" t="s">
+        <v>329</v>
+      </c>
+      <c r="M96" s="6" t="s">
+        <v>327</v>
+      </c>
+      <c r="N96" s="6" t="s">
+        <v>329</v>
+      </c>
+      <c r="O96" s="7" t="s">
+        <v>328</v>
+      </c>
+      <c r="P96" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="Q96" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="R96" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="S96" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="T96" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="V96" s="12"/>
+      <c r="W96" s="12"/>
+    </row>
+    <row r="97" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A97" s="2">
         <v>95</v>
       </c>
@@ -5518,14 +7324,45 @@
       <c r="I97" s="2" t="s">
         <v>308</v>
       </c>
-      <c r="J97" s="7"/>
-      <c r="K97" s="7"/>
-      <c r="L97" s="7"/>
-      <c r="M97" s="7"/>
-      <c r="N97" s="7"/>
-      <c r="O97" s="10" t="s">
-        <v>312</v>
-      </c>
+      <c r="J97" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="K97" s="7" t="s">
+        <v>329</v>
+      </c>
+      <c r="L97" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="M97" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="N97" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="O97" s="7" t="s">
+        <v>328</v>
+      </c>
+      <c r="P97" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="Q97" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="R97" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="S97" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="T97" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="V97" s="12"/>
+      <c r="W97" s="12"/>
+    </row>
+    <row r="98" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="V98" s="12"/>
+      <c r="W98" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="1">
